--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3178575650166</v>
+        <v>24.31785756501661</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.53152147420114</v>
+        <v>14.5315214742011</v>
       </c>
       <c r="E2">
-        <v>37.03714530544484</v>
+        <v>37.03714530544487</v>
       </c>
       <c r="F2">
-        <v>88.9437589944791</v>
+        <v>88.94375899447908</v>
       </c>
       <c r="G2">
         <v>72.89766826165962</v>
       </c>
       <c r="H2">
-        <v>69.43069910385773</v>
+        <v>69.43069910385762</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225613</v>
+        <v>22.68411345225607</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.02097484088329</v>
+        <v>13.02097484088336</v>
       </c>
       <c r="E3">
-        <v>32.99955046962382</v>
+        <v>32.99955046962406</v>
       </c>
       <c r="F3">
-        <v>79.88791569197623</v>
+        <v>79.88791569197669</v>
       </c>
       <c r="G3">
-        <v>65.45345228216608</v>
+        <v>65.45345228216645</v>
       </c>
       <c r="H3">
-        <v>64.78771038057242</v>
+        <v>64.78771038057236</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639425</v>
+        <v>21.6231818263942</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>12.15294357744176</v>
       </c>
       <c r="E4">
-        <v>30.70781068788392</v>
+        <v>30.70781068788399</v>
       </c>
       <c r="F4">
-        <v>74.62756247230671</v>
+        <v>74.62756247230689</v>
       </c>
       <c r="G4">
-        <v>61.1313148028646</v>
+        <v>61.13131480286474</v>
       </c>
       <c r="H4">
-        <v>61.77023254095718</v>
+        <v>61.77023254095728</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455049</v>
+        <v>21.17618423455045</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.80639122023231</v>
+        <v>11.80639122023246</v>
       </c>
       <c r="E5">
-        <v>29.79764969097209</v>
+        <v>29.79764969097199</v>
       </c>
       <c r="F5">
-        <v>72.5179242202925</v>
+        <v>72.51792422029237</v>
       </c>
       <c r="G5">
-        <v>59.3981260493746</v>
+        <v>59.39812604937455</v>
       </c>
       <c r="H5">
-        <v>60.49838825984589</v>
+        <v>60.49838825984551</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556955</v>
+        <v>21.10107177556949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.74912676376871</v>
+        <v>11.74912676376883</v>
       </c>
       <c r="E6">
-        <v>29.64749615289739</v>
+        <v>29.64749615289749</v>
       </c>
       <c r="F6">
-        <v>72.16885364562906</v>
+        <v>72.16885364562951</v>
       </c>
       <c r="G6">
-        <v>59.11134828023589</v>
+        <v>59.11134828023624</v>
       </c>
       <c r="H6">
-        <v>60.28464309964244</v>
+        <v>60.28464309964239</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382815</v>
+        <v>21.61721297382811</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.14824807890238</v>
+        <v>12.1482480789024</v>
       </c>
       <c r="E7">
         <v>30.69546152836834</v>
       </c>
       <c r="F7">
-        <v>74.59901250081299</v>
+        <v>74.59901250081316</v>
       </c>
       <c r="G7">
-        <v>61.1078589663433</v>
+        <v>61.10785896634343</v>
       </c>
       <c r="H7">
-        <v>61.75325121814011</v>
+        <v>61.75325121814021</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961809</v>
+        <v>23.76646345961807</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.99191243125789</v>
+        <v>13.99191243125793</v>
       </c>
       <c r="E8">
         <v>35.58660440124253</v>
       </c>
       <c r="F8">
-        <v>85.7248633609224</v>
+        <v>85.72486336092261</v>
       </c>
       <c r="G8">
-        <v>70.25091336306699</v>
+        <v>70.25091336306717</v>
       </c>
       <c r="H8">
-        <v>67.86420339647066</v>
+        <v>67.8642033964707</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E9">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F9">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G9">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H9">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E10">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F10">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G10">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H10">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E11">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F11">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G11">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H11">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E12">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F12">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G12">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H12">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E13">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F13">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G13">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H13">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E14">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F14">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G14">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H14">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E15">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F15">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G15">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H15">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E16">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F16">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G16">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H16">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E17">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F17">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G17">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H17">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E18">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F18">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G18">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H18">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E19">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F19">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G19">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H19">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E20">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F20">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G20">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H20">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E21">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F21">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G21">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H21">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E22">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F22">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G22">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H22">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E23">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F23">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G23">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H23">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E24">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F24">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G24">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H24">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193157</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>19.6882221031268</v>
+        <v>19.68822210312677</v>
       </c>
       <c r="E25">
-        <v>51.74139197742268</v>
+        <v>51.74139197742298</v>
       </c>
       <c r="F25">
-        <v>118.3143796597041</v>
+        <v>118.3143796597045</v>
       </c>
       <c r="G25">
-        <v>97.13094667782515</v>
+        <v>97.13094667782538</v>
       </c>
       <c r="H25">
-        <v>78.54004445614586</v>
+        <v>78.54004445614606</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501661</v>
+        <v>24.3178575650166</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.5315214742011</v>
+        <v>14.53152147420114</v>
       </c>
       <c r="E2">
-        <v>37.03714530544487</v>
+        <v>37.03714530544484</v>
       </c>
       <c r="F2">
-        <v>88.94375899447908</v>
+        <v>88.9437589944791</v>
       </c>
       <c r="G2">
         <v>72.89766826165962</v>
       </c>
       <c r="H2">
-        <v>69.43069910385762</v>
+        <v>69.43069910385773</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225607</v>
+        <v>22.68411345225613</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.02097484088336</v>
+        <v>13.02097484088329</v>
       </c>
       <c r="E3">
-        <v>32.99955046962406</v>
+        <v>32.99955046962382</v>
       </c>
       <c r="F3">
-        <v>79.88791569197669</v>
+        <v>79.88791569197623</v>
       </c>
       <c r="G3">
-        <v>65.45345228216645</v>
+        <v>65.45345228216608</v>
       </c>
       <c r="H3">
-        <v>64.78771038057236</v>
+        <v>64.78771038057242</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6231818263942</v>
+        <v>21.62318182639425</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>12.15294357744176</v>
       </c>
       <c r="E4">
-        <v>30.70781068788399</v>
+        <v>30.70781068788392</v>
       </c>
       <c r="F4">
-        <v>74.62756247230689</v>
+        <v>74.62756247230671</v>
       </c>
       <c r="G4">
-        <v>61.13131480286474</v>
+        <v>61.1313148028646</v>
       </c>
       <c r="H4">
-        <v>61.77023254095728</v>
+        <v>61.77023254095718</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455045</v>
+        <v>21.17618423455049</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.80639122023246</v>
+        <v>11.80639122023231</v>
       </c>
       <c r="E5">
-        <v>29.79764969097199</v>
+        <v>29.79764969097209</v>
       </c>
       <c r="F5">
-        <v>72.51792422029237</v>
+        <v>72.5179242202925</v>
       </c>
       <c r="G5">
-        <v>59.39812604937455</v>
+        <v>59.3981260493746</v>
       </c>
       <c r="H5">
-        <v>60.49838825984551</v>
+        <v>60.49838825984589</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556949</v>
+        <v>21.10107177556955</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.74912676376883</v>
+        <v>11.74912676376871</v>
       </c>
       <c r="E6">
-        <v>29.64749615289749</v>
+        <v>29.64749615289739</v>
       </c>
       <c r="F6">
-        <v>72.16885364562951</v>
+        <v>72.16885364562906</v>
       </c>
       <c r="G6">
-        <v>59.11134828023624</v>
+        <v>59.11134828023589</v>
       </c>
       <c r="H6">
-        <v>60.28464309964239</v>
+        <v>60.28464309964244</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382811</v>
+        <v>21.61721297382815</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.1482480789024</v>
+        <v>12.14824807890238</v>
       </c>
       <c r="E7">
         <v>30.69546152836834</v>
       </c>
       <c r="F7">
-        <v>74.59901250081316</v>
+        <v>74.59901250081299</v>
       </c>
       <c r="G7">
-        <v>61.10785896634343</v>
+        <v>61.1078589663433</v>
       </c>
       <c r="H7">
-        <v>61.75325121814021</v>
+        <v>61.75325121814011</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961807</v>
+        <v>23.76646345961809</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.99191243125793</v>
+        <v>13.99191243125789</v>
       </c>
       <c r="E8">
         <v>35.58660440124253</v>
       </c>
       <c r="F8">
-        <v>85.72486336092261</v>
+        <v>85.7248633609224</v>
       </c>
       <c r="G8">
-        <v>70.25091336306717</v>
+        <v>70.25091336306699</v>
       </c>
       <c r="H8">
-        <v>67.8642033964707</v>
+        <v>67.86420339647066</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E9">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F9">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G9">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H9">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E10">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F10">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G10">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H10">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E11">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F11">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G11">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H11">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E12">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F12">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G12">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H12">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E13">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F13">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G13">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H13">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E14">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F14">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G14">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H14">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E15">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F15">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G15">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H15">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E16">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F16">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G16">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H16">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E17">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F17">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G17">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H17">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E18">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F18">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G18">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H18">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E19">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F19">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G19">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H19">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E20">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F20">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G20">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H20">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E21">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F21">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G21">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H21">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E22">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F22">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G22">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H22">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E23">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F23">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G23">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H23">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E24">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F24">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G24">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H24">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193163</v>
+        <v>27.52843021193157</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>19.68822210312677</v>
+        <v>19.6882221031268</v>
       </c>
       <c r="E25">
-        <v>51.74139197742298</v>
+        <v>51.74139197742268</v>
       </c>
       <c r="F25">
-        <v>118.3143796597045</v>
+        <v>118.3143796597041</v>
       </c>
       <c r="G25">
-        <v>97.13094667782538</v>
+        <v>97.13094667782515</v>
       </c>
       <c r="H25">
-        <v>78.54004445614606</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,23 +421,23 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.53152147420114</v>
+        <v>14.49735470887029</v>
       </c>
       <c r="E2">
-        <v>37.03714530544484</v>
+        <v>37.01031408261563</v>
       </c>
       <c r="F2">
-        <v>88.9437589944791</v>
+        <v>88.79232661577699</v>
       </c>
       <c r="G2">
-        <v>72.89766826165962</v>
+        <v>72.94665559117894</v>
       </c>
       <c r="H2">
+        <v>72.41940287699114</v>
+      </c>
+      <c r="I2">
         <v>69.43069910385773</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,23 +462,23 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.02097484088329</v>
+        <v>12.99294404778396</v>
       </c>
       <c r="E3">
-        <v>32.99955046962382</v>
+        <v>32.98301002676256</v>
       </c>
       <c r="F3">
-        <v>79.88791569197623</v>
+        <v>79.76657934570316</v>
       </c>
       <c r="G3">
-        <v>65.45345228216608</v>
+        <v>65.50956785283641</v>
       </c>
       <c r="H3">
+        <v>65.03206447799533</v>
+      </c>
+      <c r="I3">
         <v>64.78771038057242</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,23 +503,23 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.15294357744176</v>
+        <v>12.1277972816441</v>
       </c>
       <c r="E4">
-        <v>30.70781068788392</v>
+        <v>30.69523907468292</v>
       </c>
       <c r="F4">
-        <v>74.62756247230671</v>
+        <v>74.52004860554142</v>
       </c>
       <c r="G4">
-        <v>61.1313148028646</v>
+        <v>61.18854033276546</v>
       </c>
       <c r="H4">
+        <v>60.74312567587275</v>
+      </c>
+      <c r="I4">
         <v>61.77023254095718</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,23 +544,23 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.80639122023231</v>
+        <v>11.78230499274009</v>
       </c>
       <c r="E5">
-        <v>29.79764969097209</v>
+        <v>29.7863891105334</v>
       </c>
       <c r="F5">
-        <v>72.5179242202925</v>
+        <v>72.41542470739829</v>
       </c>
       <c r="G5">
-        <v>59.3981260493746</v>
+        <v>59.45535950258461</v>
       </c>
       <c r="H5">
+        <v>59.02361370347509</v>
+      </c>
+      <c r="I5">
         <v>60.49838825984589</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,23 +585,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.74912676376871</v>
+        <v>11.72521137939871</v>
       </c>
       <c r="E6">
-        <v>29.64749615289739</v>
+        <v>29.6364393667019</v>
       </c>
       <c r="F6">
-        <v>72.16885364562906</v>
+        <v>72.06715868700397</v>
       </c>
       <c r="G6">
-        <v>59.11134828023589</v>
+        <v>59.16856228715329</v>
       </c>
       <c r="H6">
+        <v>58.73912685349425</v>
+      </c>
+      <c r="I6">
         <v>60.28464309964244</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,23 +626,23 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.14824807890238</v>
+        <v>12.12311646011235</v>
       </c>
       <c r="E7">
-        <v>30.69546152836834</v>
+        <v>30.68290861270046</v>
       </c>
       <c r="F7">
-        <v>74.59901250081299</v>
+        <v>74.49156831404363</v>
       </c>
       <c r="G7">
-        <v>61.1078589663433</v>
+        <v>61.16508610655864</v>
       </c>
       <c r="H7">
+        <v>60.71985316880495</v>
+      </c>
+      <c r="I7">
         <v>61.75325121814011</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,23 +667,23 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.99191243125789</v>
+        <v>13.96014354739288</v>
       </c>
       <c r="E8">
-        <v>35.58660440124253</v>
+        <v>35.5640791664005</v>
       </c>
       <c r="F8">
-        <v>85.7248633609224</v>
+        <v>85.58528661475722</v>
       </c>
       <c r="G8">
-        <v>70.25091336306699</v>
+        <v>70.30339451281549</v>
       </c>
       <c r="H8">
+        <v>69.79312713553948</v>
+      </c>
+      <c r="I8">
         <v>67.86420339647066</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,22 +708,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E9">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F9">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G9">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H9">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E10">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F10">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G10">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H10">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,22 +790,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E11">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F11">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G11">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H11">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,22 +831,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E12">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F12">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G12">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H12">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E13">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F13">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G13">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H13">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E14">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F14">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G14">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H14">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,22 +954,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E15">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F15">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G15">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H15">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,22 +995,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E16">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F16">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G16">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H16">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,22 +1036,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E17">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F17">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G17">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H17">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,22 +1077,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E18">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F18">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G18">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H18">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E19">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F19">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G19">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H19">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,22 +1159,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E20">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F20">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G20">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H20">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E21">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F21">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G21">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H21">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E22">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F22">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G22">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H22">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E23">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F23">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G23">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H23">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E24">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F24">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G24">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H24">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>19.6882221031268</v>
+        <v>19.5638235674135</v>
       </c>
       <c r="E25">
-        <v>51.74139197742268</v>
+        <v>51.45350302811378</v>
       </c>
       <c r="F25">
-        <v>118.3143796597041</v>
+        <v>117.703071337151</v>
       </c>
       <c r="G25">
-        <v>97.13094667782515</v>
+        <v>96.85477676589677</v>
       </c>
       <c r="H25">
-        <v>78.54004445614586</v>
+        <v>96.19725587699716</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>78.54004445614586</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3178575650166</v>
+        <v>7.269134351283464</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.49735470887029</v>
+        <v>5.135352760670751</v>
       </c>
       <c r="E2">
-        <v>37.01031408261563</v>
+        <v>7.542754596370855</v>
       </c>
       <c r="F2">
-        <v>88.79232661577699</v>
+        <v>65.67968969496266</v>
       </c>
       <c r="G2">
-        <v>72.94665559117894</v>
+        <v>1.9463032804521</v>
       </c>
       <c r="H2">
-        <v>72.41940287699114</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>69.43069910385773</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.105365630428214</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>72.31911908086836</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225613</v>
+        <v>6.900237367734741</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.99294404778396</v>
+        <v>4.571264884553545</v>
       </c>
       <c r="E3">
-        <v>32.98301002676256</v>
+        <v>7.289344135680594</v>
       </c>
       <c r="F3">
-        <v>79.76657934570316</v>
+        <v>60.50767168862744</v>
       </c>
       <c r="G3">
-        <v>65.50956785283641</v>
+        <v>1.988389097355424</v>
       </c>
       <c r="H3">
-        <v>65.03206447799533</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>64.78771038057242</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.89958667727471</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>66.45095837459792</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639425</v>
+        <v>6.669701182641117</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.1277972816441</v>
+        <v>4.239812732992884</v>
       </c>
       <c r="E4">
-        <v>30.69523907468292</v>
+        <v>7.139502043173511</v>
       </c>
       <c r="F4">
-        <v>74.52004860554142</v>
+        <v>57.61045422511406</v>
       </c>
       <c r="G4">
-        <v>61.18854033276546</v>
+        <v>2.013160235945794</v>
       </c>
       <c r="H4">
-        <v>60.74312567587275</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>61.77023254095718</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.791384963647277</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>62.80517761024014</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455049</v>
+        <v>6.57477795901247</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.78230499274009</v>
+        <v>4.107144040618127</v>
       </c>
       <c r="E5">
-        <v>29.7863891105334</v>
+        <v>7.079616234894483</v>
       </c>
       <c r="F5">
-        <v>72.41542470739829</v>
+        <v>56.47311197698932</v>
       </c>
       <c r="G5">
-        <v>59.45535950258461</v>
+        <v>2.023084046977307</v>
       </c>
       <c r="H5">
-        <v>59.02361370347509</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>60.49838825984589</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.751118797907998</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>61.30167494541061</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556955</v>
+        <v>6.558958861598938</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.72521137939871</v>
+        <v>4.085227769017677</v>
       </c>
       <c r="E6">
-        <v>29.6364393667019</v>
+        <v>7.069737204639768</v>
       </c>
       <c r="F6">
-        <v>72.06715868700397</v>
+        <v>56.28664643402419</v>
       </c>
       <c r="G6">
-        <v>59.16856228715329</v>
+        <v>2.024723907332307</v>
       </c>
       <c r="H6">
-        <v>58.73912685349425</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>60.28464309964244</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.744646038148609</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>61.0507765285403</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382815</v>
+        <v>6.668424894318073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.12311646011235</v>
+        <v>4.238015275427718</v>
       </c>
       <c r="E7">
-        <v>30.68290861270046</v>
+        <v>7.138689925626024</v>
       </c>
       <c r="F7">
-        <v>74.49156831404363</v>
+        <v>57.59495092263997</v>
       </c>
       <c r="G7">
-        <v>61.16508610655864</v>
+        <v>2.013294654476543</v>
       </c>
       <c r="H7">
-        <v>60.71985316880495</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>61.75325121814011</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.790827248581752</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>62.7849807691314</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961809</v>
+        <v>7.142781935120183</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.96014354739288</v>
+        <v>4.936799438293217</v>
       </c>
       <c r="E8">
-        <v>35.5640791664005</v>
+        <v>7.453984953516223</v>
       </c>
       <c r="F8">
-        <v>85.58528661475722</v>
+        <v>63.77416970030654</v>
       </c>
       <c r="G8">
-        <v>70.30339451281549</v>
+        <v>1.961106770465628</v>
       </c>
       <c r="H8">
-        <v>69.79312713553948</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>67.86420339647066</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.030126510236539</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>70.29957763897457</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193157</v>
+        <v>8.042761022468799</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19.5638235674135</v>
+        <v>6.525975745774875</v>
       </c>
       <c r="E9">
-        <v>51.45350302811378</v>
+        <v>8.139583583532554</v>
       </c>
       <c r="F9">
-        <v>117.703071337151</v>
+        <v>79.22048378000744</v>
       </c>
       <c r="G9">
-        <v>96.85477676589677</v>
+        <v>1.842959870920096</v>
       </c>
       <c r="H9">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.696729037148882</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>85.22379947886601</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193157</v>
+        <v>8.797699128944462</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.5638235674135</v>
+        <v>8.151617683327874</v>
       </c>
       <c r="E10">
-        <v>51.45350302811378</v>
+        <v>8.756176512300243</v>
       </c>
       <c r="F10">
-        <v>117.703071337151</v>
+        <v>94.75045307680928</v>
       </c>
       <c r="G10">
-        <v>96.85477676589677</v>
+        <v>1.723073568063915</v>
       </c>
       <c r="H10">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.841028538587487</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>97.98587565694493</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193157</v>
+        <v>9.177894909805374</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.5638235674135</v>
+        <v>9.319116179495389</v>
       </c>
       <c r="E11">
-        <v>51.45350302811378</v>
+        <v>9.132571648113162</v>
       </c>
       <c r="F11">
-        <v>117.703071337151</v>
+        <v>105.5506612734571</v>
       </c>
       <c r="G11">
-        <v>96.85477676589677</v>
+        <v>1.637833741858404</v>
       </c>
       <c r="H11">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.702718085870965</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>105.8632354015346</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193157</v>
+        <v>9.336371661706536</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.5638235674135</v>
+        <v>10.03556196035834</v>
       </c>
       <c r="E12">
-        <v>51.45350302811378</v>
+        <v>9.333616301472865</v>
       </c>
       <c r="F12">
-        <v>117.703071337151</v>
+        <v>112.0032777820479</v>
       </c>
       <c r="G12">
-        <v>96.85477676589677</v>
+        <v>1.586011093984664</v>
       </c>
       <c r="H12">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.19979999402666</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>110.2243277680784</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193157</v>
+        <v>9.300463225113937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.5638235674135</v>
+        <v>9.849651963920463</v>
       </c>
       <c r="E13">
-        <v>51.45350302811378</v>
+        <v>9.283699991531051</v>
       </c>
       <c r="F13">
-        <v>117.703071337151</v>
+        <v>110.3425442615245</v>
       </c>
       <c r="G13">
-        <v>96.85477676589677</v>
+        <v>1.599417126415943</v>
       </c>
       <c r="H13">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.07305582147163</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>109.1255833344232</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193157</v>
+        <v>9.19035044051531</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.5638235674135</v>
+        <v>9.367584158627915</v>
       </c>
       <c r="E14">
-        <v>51.45350302811378</v>
+        <v>9.1469061912405</v>
       </c>
       <c r="F14">
-        <v>117.703071337151</v>
+        <v>105.9915856050507</v>
       </c>
       <c r="G14">
-        <v>96.85477676589677</v>
+        <v>1.63431492632958</v>
       </c>
       <c r="H14">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.737087647677662</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>106.1692092398791</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193157</v>
+        <v>9.12589076904395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.5638235674135</v>
+        <v>9.126663525999772</v>
       </c>
       <c r="E15">
-        <v>51.45350302811378</v>
+        <v>9.074618240824973</v>
       </c>
       <c r="F15">
-        <v>117.703071337151</v>
+        <v>103.7937867170061</v>
       </c>
       <c r="G15">
-        <v>96.85477676589677</v>
+        <v>1.651823017678343</v>
       </c>
       <c r="H15">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.565167323297116</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>104.6322292933108</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193157</v>
+        <v>8.773525699547227</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.5638235674135</v>
+        <v>8.090818828396298</v>
       </c>
       <c r="E16">
-        <v>51.45350302811378</v>
+        <v>8.734982788465338</v>
       </c>
       <c r="F16">
-        <v>117.703071337151</v>
+        <v>94.17911262799772</v>
       </c>
       <c r="G16">
-        <v>96.85477676589677</v>
+        <v>1.727534927865313</v>
       </c>
       <c r="H16">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.79431672565811</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>97.54786327541471</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193157</v>
+        <v>8.56287265677342</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.5638235674135</v>
+        <v>7.602563824222496</v>
       </c>
       <c r="E17">
-        <v>51.45350302811378</v>
+        <v>8.559313166635496</v>
       </c>
       <c r="F17">
-        <v>117.703071337151</v>
+        <v>89.56173066958692</v>
       </c>
       <c r="G17">
-        <v>96.85477676589677</v>
+        <v>1.763431389701575</v>
       </c>
       <c r="H17">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.412226107244797</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>93.92442498572829</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193157</v>
+        <v>8.442138131155213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19.5638235674135</v>
+        <v>7.35012464430103</v>
       </c>
       <c r="E18">
-        <v>51.45350302811378</v>
+        <v>8.464770603021663</v>
       </c>
       <c r="F18">
-        <v>117.703071337151</v>
+        <v>87.15522986518593</v>
       </c>
       <c r="G18">
-        <v>96.85477676589677</v>
+        <v>1.782035481084682</v>
       </c>
       <c r="H18">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.209671694915773</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>91.97482962536745</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193157</v>
+        <v>8.401257479242352</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19.5638235674135</v>
+        <v>7.268359303011426</v>
       </c>
       <c r="E19">
-        <v>51.45350302811378</v>
+        <v>8.433621164680675</v>
       </c>
       <c r="F19">
-        <v>117.703071337151</v>
+        <v>86.37314195672189</v>
       </c>
       <c r="G19">
-        <v>96.85477676589677</v>
+        <v>1.788067469326144</v>
       </c>
       <c r="H19">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.14330841183596</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>91.33184462567287</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193157</v>
+        <v>8.585232361583666</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.5638235674135</v>
+        <v>7.651281895651622</v>
       </c>
       <c r="E20">
-        <v>51.45350302811378</v>
+        <v>8.577271646879385</v>
       </c>
       <c r="F20">
-        <v>117.703071337151</v>
+        <v>90.02470364093507</v>
       </c>
       <c r="G20">
-        <v>96.85477676589677</v>
+        <v>1.759844380977975</v>
       </c>
       <c r="H20">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.45091755938242</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>94.29459349126888</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193157</v>
+        <v>9.221913503612312</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.5638235674135</v>
+        <v>9.495156373641807</v>
       </c>
       <c r="E21">
-        <v>51.45350302811378</v>
+        <v>9.184131532151422</v>
       </c>
       <c r="F21">
-        <v>117.703071337151</v>
+        <v>107.1491483181421</v>
       </c>
       <c r="G21">
-        <v>96.85477676589677</v>
+        <v>1.625061627269517</v>
       </c>
       <c r="H21">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.827032561919141</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>106.9668580396281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193157</v>
+        <v>9.221913503612312</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19.5638235674135</v>
+        <v>9.495156373641807</v>
       </c>
       <c r="E22">
-        <v>51.45350302811378</v>
+        <v>9.184131532151422</v>
       </c>
       <c r="F22">
-        <v>117.703071337151</v>
+        <v>107.1491483181421</v>
       </c>
       <c r="G22">
-        <v>96.85477676589677</v>
+        <v>1.625061627269517</v>
       </c>
       <c r="H22">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.827032561919141</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>106.9668580396281</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193157</v>
+        <v>9.221913503612312</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.5638235674135</v>
+        <v>9.495156373641807</v>
       </c>
       <c r="E23">
-        <v>51.45350302811378</v>
+        <v>9.184131532151422</v>
       </c>
       <c r="F23">
-        <v>117.703071337151</v>
+        <v>107.1491483181421</v>
       </c>
       <c r="G23">
-        <v>96.85477676589677</v>
+        <v>1.625061627269517</v>
       </c>
       <c r="H23">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.827032561919141</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>106.9668580396281</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193157</v>
+        <v>9.221913503612312</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.5638235674135</v>
+        <v>9.495156373641807</v>
       </c>
       <c r="E24">
-        <v>51.45350302811378</v>
+        <v>9.184131532151422</v>
       </c>
       <c r="F24">
-        <v>117.703071337151</v>
+        <v>107.1491483181421</v>
       </c>
       <c r="G24">
-        <v>96.85477676589677</v>
+        <v>1.625061627269517</v>
       </c>
       <c r="H24">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.827032561919141</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>106.9668580396281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193157</v>
+        <v>9.221913503612312</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>19.5638235674135</v>
+        <v>9.495156373641807</v>
       </c>
       <c r="E25">
-        <v>51.45350302811378</v>
+        <v>9.184131532151422</v>
       </c>
       <c r="F25">
-        <v>117.703071337151</v>
+        <v>107.1491483181421</v>
       </c>
       <c r="G25">
-        <v>96.85477676589677</v>
+        <v>1.625061627269517</v>
       </c>
       <c r="H25">
-        <v>96.19725587699716</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>78.54004445614586</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.827032561919141</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>106.9668580396281</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.269134351283464</v>
+        <v>5.373460587611564</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.135352760670751</v>
+        <v>2.172574338347599</v>
       </c>
       <c r="E2">
-        <v>7.542754596370855</v>
+        <v>5.867700255313618</v>
       </c>
       <c r="F2">
-        <v>65.67968969496266</v>
+        <v>49.90378209132497</v>
       </c>
       <c r="G2">
-        <v>1.9463032804521</v>
+        <v>2.136792568314623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.3772723784408</v>
       </c>
       <c r="J2">
-        <v>7.105365630428214</v>
+        <v>6.232377406800895</v>
       </c>
       <c r="K2">
-        <v>72.31911908086836</v>
+        <v>18.15248876848935</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.3635921904865</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.900237367734741</v>
+        <v>5.257012021298809</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.571264884553545</v>
+        <v>2.171070391571285</v>
       </c>
       <c r="E3">
-        <v>7.289344135680594</v>
+        <v>5.844128235600886</v>
       </c>
       <c r="F3">
-        <v>60.50767168862744</v>
+        <v>48.13674280545413</v>
       </c>
       <c r="G3">
-        <v>1.988389097355424</v>
+        <v>2.148993276551396</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>23.98308762677804</v>
       </c>
       <c r="J3">
-        <v>6.89958667727471</v>
+        <v>6.229286126153768</v>
       </c>
       <c r="K3">
-        <v>66.45095837459792</v>
+        <v>17.09696470012997</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.78371746811153</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669701182641117</v>
+        <v>5.181691115115772</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.239812732992884</v>
+        <v>2.170081835663552</v>
       </c>
       <c r="E4">
-        <v>7.139502043173511</v>
+        <v>5.832743981412127</v>
       </c>
       <c r="F4">
-        <v>57.61045422511406</v>
+        <v>47.0590795897463</v>
       </c>
       <c r="G4">
-        <v>2.013160235945794</v>
+        <v>2.156638934825247</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.74830700690459</v>
       </c>
       <c r="J4">
-        <v>6.791384963647277</v>
+        <v>6.229780769505514</v>
       </c>
       <c r="K4">
-        <v>62.80517761024014</v>
+        <v>16.43489018135032</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.42950330197304</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57477795901247</v>
+        <v>5.150066635953727</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.107144040618127</v>
+        <v>2.169654173462989</v>
       </c>
       <c r="E5">
-        <v>7.079616234894483</v>
+        <v>5.828861752248355</v>
       </c>
       <c r="F5">
-        <v>56.47311197698932</v>
+        <v>46.62202458499374</v>
       </c>
       <c r="G5">
-        <v>2.023084046977307</v>
+        <v>2.159796762164852</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.65440200477383</v>
       </c>
       <c r="J5">
-        <v>6.751118797907998</v>
+        <v>6.230564409761579</v>
       </c>
       <c r="K5">
-        <v>61.30167494541061</v>
+        <v>16.16178546146632</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.28576163020787</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.558958861598938</v>
+        <v>5.14476009911808</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.085227769017677</v>
+        <v>2.169581434031058</v>
       </c>
       <c r="E6">
-        <v>7.069737204639768</v>
+        <v>5.828262259091526</v>
       </c>
       <c r="F6">
-        <v>56.28664643402419</v>
+        <v>46.549587566378</v>
       </c>
       <c r="G6">
-        <v>2.024723907332307</v>
+        <v>2.160323755737842</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.63891455552472</v>
       </c>
       <c r="J6">
-        <v>6.744646038148609</v>
+        <v>6.230729136127121</v>
       </c>
       <c r="K6">
-        <v>61.0507765285403</v>
+        <v>16.11624468324594</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.26193452292481</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.668424894318073</v>
+        <v>5.181268344167296</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.238015275427718</v>
+        <v>2.170076178963126</v>
       </c>
       <c r="E7">
-        <v>7.138689925626024</v>
+        <v>5.832688585255407</v>
       </c>
       <c r="F7">
-        <v>57.59495092263997</v>
+        <v>47.05317641715995</v>
       </c>
       <c r="G7">
-        <v>2.013294654476543</v>
+        <v>2.156681347470764</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.74703347255773</v>
       </c>
       <c r="J7">
-        <v>6.790827248581752</v>
+        <v>6.229789006256474</v>
       </c>
       <c r="K7">
-        <v>62.7849807691314</v>
+        <v>16.43122004050121</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.42756210149218</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.142781935120183</v>
+        <v>5.334120276601357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.936799438293217</v>
+        <v>2.172063878090629</v>
       </c>
       <c r="E8">
-        <v>7.453984953516223</v>
+        <v>5.858919363164454</v>
       </c>
       <c r="F8">
-        <v>63.77416970030654</v>
+        <v>49.29313148745499</v>
       </c>
       <c r="G8">
-        <v>1.961106770465628</v>
+        <v>2.140969435406243</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.23981939404118</v>
       </c>
       <c r="J8">
-        <v>7.030126510236539</v>
+        <v>6.230802770359099</v>
       </c>
       <c r="K8">
-        <v>70.29957763897457</v>
+        <v>17.79154914070076</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.1633491092598</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.042761022468799</v>
+        <v>5.602201474513642</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.525975745774875</v>
+        <v>2.175888319545195</v>
       </c>
       <c r="E9">
-        <v>8.139583583532554</v>
+        <v>5.935801390311686</v>
       </c>
       <c r="F9">
-        <v>79.22048378000744</v>
+        <v>53.73550870778146</v>
       </c>
       <c r="G9">
-        <v>1.842959870920096</v>
+        <v>2.11121564204009</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.26640148794567</v>
       </c>
       <c r="J9">
-        <v>7.696729037148882</v>
+        <v>6.25272509317726</v>
       </c>
       <c r="K9">
-        <v>85.22379947886601</v>
+        <v>20.5984883434455</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.61596683260808</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.797699128944462</v>
+        <v>5.777983075724085</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.151617683327874</v>
+        <v>2.179390554396004</v>
       </c>
       <c r="E10">
-        <v>8.756176512300243</v>
+        <v>6.009179270731405</v>
       </c>
       <c r="F10">
-        <v>94.75045307680928</v>
+        <v>57.0251123321428</v>
       </c>
       <c r="G10">
-        <v>1.723073568063915</v>
+        <v>2.08973621431724</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>26.06179786940381</v>
       </c>
       <c r="J10">
-        <v>8.841028538587487</v>
+        <v>6.282421954791914</v>
       </c>
       <c r="K10">
-        <v>97.98587565694493</v>
+        <v>22.6930953479243</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.71998941413499</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.177894909805374</v>
+        <v>5.852918546631972</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.319116179495389</v>
+        <v>2.18134212266656</v>
       </c>
       <c r="E11">
-        <v>9.132571648113162</v>
+        <v>6.046565225592973</v>
       </c>
       <c r="F11">
-        <v>105.5506612734571</v>
+        <v>58.52835145977069</v>
       </c>
       <c r="G11">
-        <v>1.637833741858404</v>
+        <v>2.079978522215096</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26.4338221333596</v>
       </c>
       <c r="J11">
-        <v>9.702718085870965</v>
+        <v>6.299240951814664</v>
       </c>
       <c r="K11">
-        <v>105.8632354015346</v>
+        <v>23.61494695547497</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.39357586719104</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.336371661706536</v>
+        <v>5.880531784414884</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.03556196035834</v>
+        <v>2.182154403153819</v>
       </c>
       <c r="E12">
-        <v>9.333616301472865</v>
+        <v>6.061329707349903</v>
       </c>
       <c r="F12">
-        <v>112.0032777820479</v>
+        <v>59.09881388629202</v>
       </c>
       <c r="G12">
-        <v>1.586011093984664</v>
+        <v>2.076278759989384</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>26.57629120402641</v>
       </c>
       <c r="J12">
-        <v>10.19979999402666</v>
+        <v>6.306119547155175</v>
       </c>
       <c r="K12">
-        <v>110.2243277680784</v>
+        <v>23.95992692977816</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.64544817852838</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.300463225113937</v>
+        <v>5.874619404229199</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.849651963920463</v>
+        <v>2.181975813033462</v>
       </c>
       <c r="E13">
-        <v>9.283699991531051</v>
+        <v>6.058122367900116</v>
       </c>
       <c r="F13">
-        <v>110.3425442615245</v>
+        <v>58.97589501696434</v>
       </c>
       <c r="G13">
-        <v>1.599417126415943</v>
+        <v>2.077075897273959</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>26.54553487594225</v>
       </c>
       <c r="J13">
-        <v>10.07305582147163</v>
+        <v>6.304614874378031</v>
       </c>
       <c r="K13">
-        <v>109.1255833344232</v>
+        <v>23.88580570988653</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.59134081835714</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.19035044051531</v>
+        <v>5.855205843711348</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.367584158627915</v>
+        <v>2.181407341303553</v>
       </c>
       <c r="E14">
-        <v>9.1469061912405</v>
+        <v>6.047767546479642</v>
       </c>
       <c r="F14">
-        <v>105.9915856050507</v>
+        <v>58.57525743174222</v>
       </c>
       <c r="G14">
-        <v>1.63431492632958</v>
+        <v>2.079674277125834</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>26.4455104404865</v>
       </c>
       <c r="J14">
-        <v>9.737087647677662</v>
+        <v>6.299796437575013</v>
       </c>
       <c r="K14">
-        <v>106.1692092398791</v>
+        <v>23.6434087301705</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.41436008989847</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.12589076904395</v>
+        <v>5.843213829653136</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.126663525999772</v>
+        <v>2.181069395029924</v>
       </c>
       <c r="E15">
-        <v>9.074618240824973</v>
+        <v>6.041504988224114</v>
       </c>
       <c r="F15">
-        <v>103.7937867170061</v>
+        <v>58.3300236333049</v>
       </c>
       <c r="G15">
-        <v>1.651823017678343</v>
+        <v>2.081265028681249</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>26.38445401999424</v>
       </c>
       <c r="J15">
-        <v>9.565167323297116</v>
+        <v>6.296912438892174</v>
       </c>
       <c r="K15">
-        <v>104.6322292933108</v>
+        <v>23.49441032988231</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.30554576177887</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.773525699547227</v>
+        <v>5.772981336860889</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.090818828396298</v>
+        <v>2.17927198935521</v>
       </c>
       <c r="E16">
-        <v>8.734982788465338</v>
+        <v>6.006819203779887</v>
       </c>
       <c r="F16">
-        <v>94.17911262799772</v>
+        <v>56.92702622664036</v>
       </c>
       <c r="G16">
-        <v>1.727534927865313</v>
+        <v>2.090373624123955</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>26.03770051674286</v>
       </c>
       <c r="J16">
-        <v>8.79431672565811</v>
+        <v>6.281392184182505</v>
       </c>
       <c r="K16">
-        <v>97.54786327541471</v>
+        <v>22.63225534118594</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>16.67550631503736</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.56287265677342</v>
+        <v>5.728580663304155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.602563824222496</v>
+        <v>2.178275313456013</v>
       </c>
       <c r="E17">
-        <v>8.559313166635496</v>
+        <v>5.98658769708922</v>
       </c>
       <c r="F17">
-        <v>89.56173066958692</v>
+        <v>56.06819976686945</v>
       </c>
       <c r="G17">
-        <v>1.763431389701575</v>
+        <v>2.095960436993528</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.82767122073578</v>
       </c>
       <c r="J17">
-        <v>8.412226107244797</v>
+        <v>6.272741475409376</v>
       </c>
       <c r="K17">
-        <v>93.92442498572829</v>
+        <v>22.09564641798153</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.37477092512206</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.442138131155213</v>
+        <v>5.70257185624025</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.35012464430103</v>
+        <v>2.177734261285613</v>
       </c>
       <c r="E18">
-        <v>8.464770603021663</v>
+        <v>5.975326075636661</v>
       </c>
       <c r="F18">
-        <v>87.15522986518593</v>
+        <v>55.5748413471842</v>
       </c>
       <c r="G18">
-        <v>1.782035481084682</v>
+        <v>2.099175536577157</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.70781862344515</v>
       </c>
       <c r="J18">
-        <v>8.209671694915773</v>
+        <v>6.268075119164664</v>
       </c>
       <c r="K18">
-        <v>91.97482962536745</v>
+        <v>21.78406167342571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.21451224374186</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.401257479242352</v>
+        <v>5.693686038417598</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.268359303011426</v>
+        <v>2.177556006754894</v>
       </c>
       <c r="E19">
-        <v>8.433621164680675</v>
+        <v>5.971576599841248</v>
       </c>
       <c r="F19">
-        <v>86.37314195672189</v>
+        <v>55.407899259253</v>
       </c>
       <c r="G19">
-        <v>1.788067469326144</v>
+        <v>2.100264596048524</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.66739844928916</v>
       </c>
       <c r="J19">
-        <v>8.14330841183596</v>
+        <v>6.266547330481183</v>
       </c>
       <c r="K19">
-        <v>91.33184462567287</v>
+        <v>21.67804936035714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.16025682964118</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.585232361583666</v>
+        <v>5.733356186553406</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.651281895651622</v>
+        <v>2.178377933587243</v>
       </c>
       <c r="E20">
-        <v>8.577271646879385</v>
+        <v>5.988702349569466</v>
       </c>
       <c r="F20">
-        <v>90.02470364093507</v>
+        <v>56.1595582507777</v>
       </c>
       <c r="G20">
-        <v>1.759844380977975</v>
+        <v>2.095365579236414</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.84992997389552</v>
       </c>
       <c r="J20">
-        <v>8.45091755938242</v>
+        <v>6.273630114951481</v>
       </c>
       <c r="K20">
-        <v>94.29459349126888</v>
+        <v>22.15307140593169</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.40443395910129</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.221913503612312</v>
+        <v>5.860929129198535</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.495156373641807</v>
+        <v>2.181572132238689</v>
       </c>
       <c r="E21">
-        <v>9.184131532151422</v>
+        <v>6.050792261144814</v>
       </c>
       <c r="F21">
-        <v>107.1491483181421</v>
+        <v>58.6928986945735</v>
       </c>
       <c r="G21">
-        <v>1.625061627269517</v>
+        <v>2.078911256485171</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>26.47484571749028</v>
       </c>
       <c r="J21">
-        <v>9.827032561919141</v>
+        <v>6.301197610436334</v>
       </c>
       <c r="K21">
-        <v>106.9668580396281</v>
+        <v>23.71471493765517</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.46642824480911</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.221913503612312</v>
+        <v>5.939835235824258</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.495156373641807</v>
+        <v>2.184100154275304</v>
       </c>
       <c r="E22">
-        <v>9.184131532151422</v>
+        <v>6.09492840658134</v>
       </c>
       <c r="F22">
-        <v>107.1491483181421</v>
+        <v>60.35590282101236</v>
       </c>
       <c r="G22">
-        <v>1.625061627269517</v>
+        <v>2.068125965585963</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.89261922061345</v>
       </c>
       <c r="J22">
-        <v>9.827032561919141</v>
+        <v>6.322203605884563</v>
       </c>
       <c r="K22">
-        <v>106.9668580396281</v>
+        <v>24.71161523683114</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.19389249408302</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.221913503612312</v>
+        <v>5.898144919817485</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.495156373641807</v>
+        <v>2.18270224658378</v>
       </c>
       <c r="E23">
-        <v>9.184131532151422</v>
+        <v>6.071035331303746</v>
       </c>
       <c r="F23">
-        <v>107.1491483181421</v>
+        <v>59.46753834022049</v>
       </c>
       <c r="G23">
-        <v>1.625061627269517</v>
+        <v>2.073887621795073</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26.66874110247182</v>
       </c>
       <c r="J23">
-        <v>9.827032561919141</v>
+        <v>6.31070660247835</v>
       </c>
       <c r="K23">
-        <v>106.9668580396281</v>
+        <v>24.18159056675074</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.80722985484252</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.221913503612312</v>
+        <v>5.731198671681277</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.495156373641807</v>
+        <v>2.178331441103851</v>
       </c>
       <c r="E24">
-        <v>9.184131532151422</v>
+        <v>5.987745165819884</v>
       </c>
       <c r="F24">
-        <v>107.1491483181421</v>
+        <v>56.11825387461407</v>
       </c>
       <c r="G24">
-        <v>1.625061627269517</v>
+        <v>2.095634504076014</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.83986400977854</v>
       </c>
       <c r="J24">
-        <v>9.827032561919141</v>
+        <v>6.273227407111184</v>
       </c>
       <c r="K24">
-        <v>106.9668580396281</v>
+        <v>22.12711919174909</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.39102341654604</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.221913503612312</v>
+        <v>5.533257625313602</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.495156373641807</v>
+        <v>2.174793099379444</v>
       </c>
       <c r="E25">
-        <v>9.184131532151422</v>
+        <v>5.912141950479093</v>
       </c>
       <c r="F25">
-        <v>107.1491483181421</v>
+        <v>52.5292042976226</v>
       </c>
       <c r="G25">
-        <v>1.625061627269517</v>
+        <v>2.119176978490029</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>24.98181711674714</v>
       </c>
       <c r="J25">
-        <v>9.827032561919141</v>
+        <v>6.244519659720048</v>
       </c>
       <c r="K25">
-        <v>106.9668580396281</v>
+        <v>19.79758277294174</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.22248808362685</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.373460587611564</v>
+        <v>5.038478590194587</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.172574338347599</v>
+        <v>4.200236232346084</v>
       </c>
       <c r="E2">
-        <v>5.867700255313618</v>
+        <v>10.58592210995402</v>
       </c>
       <c r="F2">
-        <v>49.90378209132497</v>
+        <v>55.97689310170403</v>
       </c>
       <c r="G2">
-        <v>2.136792568314623</v>
+        <v>3.775357352031684</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.3772723784408</v>
+        <v>28.56943258219281</v>
       </c>
       <c r="J2">
-        <v>6.232377406800895</v>
+        <v>10.21095220581566</v>
       </c>
       <c r="K2">
-        <v>18.15248876848935</v>
+        <v>19.77108203066788</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.3635921904865</v>
+        <v>19.98108532810528</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.257012021298809</v>
+        <v>4.971485998590704</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.171070391571285</v>
+        <v>4.206681548598971</v>
       </c>
       <c r="E3">
-        <v>5.844128235600886</v>
+        <v>10.60911583372151</v>
       </c>
       <c r="F3">
-        <v>48.13674280545413</v>
+        <v>55.66012800396597</v>
       </c>
       <c r="G3">
-        <v>2.148993276551396</v>
+        <v>3.779547390959261</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.98308762677804</v>
+        <v>28.48289790478313</v>
       </c>
       <c r="J3">
-        <v>6.229286126153768</v>
+        <v>10.22610300432585</v>
       </c>
       <c r="K3">
-        <v>17.09696470012997</v>
+        <v>19.62194547617872</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.78371746811153</v>
+        <v>19.95747371372629</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.181691115115772</v>
+        <v>4.928570664651845</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.170081835663552</v>
+        <v>4.21112857077487</v>
       </c>
       <c r="E4">
-        <v>5.832743981412127</v>
+        <v>10.62478750365319</v>
       </c>
       <c r="F4">
-        <v>47.0590795897463</v>
+        <v>55.47508247768989</v>
       </c>
       <c r="G4">
-        <v>2.156638934825247</v>
+        <v>3.782251838293728</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.74830700690459</v>
+        <v>28.43198611629305</v>
       </c>
       <c r="J4">
-        <v>6.229780769505514</v>
+        <v>10.23640394129876</v>
       </c>
       <c r="K4">
-        <v>16.43489018135032</v>
+        <v>19.53621358696942</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.42950330197304</v>
+        <v>19.94799752428383</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.150066635953727</v>
+        <v>4.910639977739941</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.169654173462989</v>
+        <v>4.213063797015367</v>
       </c>
       <c r="E5">
-        <v>5.828861752248355</v>
+        <v>10.63153387264049</v>
       </c>
       <c r="F5">
-        <v>46.62202458499374</v>
+        <v>55.40209289360868</v>
       </c>
       <c r="G5">
-        <v>2.159796762164852</v>
+        <v>3.78338718399052</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.65440200477383</v>
+        <v>28.41180174333098</v>
       </c>
       <c r="J5">
-        <v>6.230564409761579</v>
+        <v>10.24085281191987</v>
       </c>
       <c r="K5">
-        <v>16.16178546146632</v>
+        <v>19.50277854823541</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.28576163020787</v>
+        <v>19.94540092869707</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.14476009911808</v>
+        <v>4.907636055765443</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.169581434031058</v>
+        <v>4.21339256814675</v>
       </c>
       <c r="E6">
-        <v>5.828262259091526</v>
+        <v>10.63267585581099</v>
       </c>
       <c r="F6">
-        <v>46.549587566378</v>
+        <v>55.39012021583514</v>
       </c>
       <c r="G6">
-        <v>2.160323755737842</v>
+        <v>3.783577720082534</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.63891455552472</v>
+        <v>28.40848423343001</v>
       </c>
       <c r="J6">
-        <v>6.230729136127121</v>
+        <v>10.24160671631088</v>
       </c>
       <c r="K6">
-        <v>16.11624468324594</v>
+        <v>19.49731827885153</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.26193452292481</v>
+        <v>19.94504621969121</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.181268344167296</v>
+        <v>4.928330628494947</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.170076178963126</v>
+        <v>4.211154171864192</v>
       </c>
       <c r="E7">
-        <v>5.832688585255407</v>
+        <v>10.62487702938562</v>
       </c>
       <c r="F7">
-        <v>47.05317641715995</v>
+        <v>55.47408827224777</v>
       </c>
       <c r="G7">
-        <v>2.156681347470764</v>
+        <v>3.782267015115165</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.74703347255773</v>
+        <v>28.43171161989736</v>
       </c>
       <c r="J7">
-        <v>6.229789006256474</v>
+        <v>10.236462923244</v>
       </c>
       <c r="K7">
-        <v>16.43122004050121</v>
+        <v>19.53575654963775</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.42756210149218</v>
+        <v>19.94795738135101</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.334120276601357</v>
+        <v>5.015752618043939</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.172063878090629</v>
+        <v>4.202356920233945</v>
       </c>
       <c r="E8">
-        <v>5.858919363164454</v>
+        <v>10.59362255663338</v>
       </c>
       <c r="F8">
-        <v>49.29313148745499</v>
+        <v>55.86573743273978</v>
       </c>
       <c r="G8">
-        <v>2.140969435406243</v>
+        <v>3.776774813550891</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.23981939404118</v>
+        <v>28.53913711265431</v>
       </c>
       <c r="J8">
-        <v>6.230802770359099</v>
+        <v>10.21596908506249</v>
       </c>
       <c r="K8">
-        <v>17.79154914070076</v>
+        <v>19.71846880783853</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.1633491092598</v>
+        <v>19.97190354267261</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.602201474513642</v>
+        <v>5.172818675410919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.175888319545195</v>
+        <v>4.188993756282844</v>
       </c>
       <c r="E9">
-        <v>5.935801390311686</v>
+        <v>10.54367121793453</v>
       </c>
       <c r="F9">
-        <v>53.73550870778146</v>
+        <v>56.70674065828276</v>
       </c>
       <c r="G9">
-        <v>2.11121564204009</v>
+        <v>3.767043915417692</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.26640148794567</v>
+        <v>28.76722206447828</v>
       </c>
       <c r="J9">
-        <v>6.25272509317726</v>
+        <v>10.1836962587671</v>
       </c>
       <c r="K9">
-        <v>20.5984883434455</v>
+        <v>20.12149261533284</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.61596683260808</v>
+        <v>20.05856008849599</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.777983075724085</v>
+        <v>5.279168700597397</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.179390554396004</v>
+        <v>4.181551524709167</v>
       </c>
       <c r="E10">
-        <v>6.009179270731405</v>
+        <v>10.51386708899135</v>
       </c>
       <c r="F10">
-        <v>57.0251123321428</v>
+        <v>57.36622632168421</v>
       </c>
       <c r="G10">
-        <v>2.08973621431724</v>
+        <v>3.760519723704313</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.06179786940381</v>
+        <v>28.94513158071103</v>
       </c>
       <c r="J10">
-        <v>6.282421954791914</v>
+        <v>10.16480395835606</v>
       </c>
       <c r="K10">
-        <v>22.6930953479243</v>
+        <v>20.44253718826056</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.71998941413499</v>
+        <v>20.14617354301249</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.852918546631972</v>
+        <v>5.325530854144735</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.18134212266656</v>
+        <v>4.178682825672948</v>
       </c>
       <c r="E11">
-        <v>6.046565225592973</v>
+        <v>10.50180185096604</v>
       </c>
       <c r="F11">
-        <v>58.52835145977069</v>
+        <v>57.67459768317192</v>
       </c>
       <c r="G11">
-        <v>2.079978522215096</v>
+        <v>3.757685619164441</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.4338221333596</v>
+        <v>29.02824044366515</v>
       </c>
       <c r="J11">
-        <v>6.299240951814664</v>
+        <v>10.1572541252913</v>
       </c>
       <c r="K11">
-        <v>23.61494695547497</v>
+        <v>20.59346571113637</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.39357586719104</v>
+        <v>20.19115608210011</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.880531784414884</v>
+        <v>5.342792654225226</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.182154403153819</v>
+        <v>4.177670920938255</v>
       </c>
       <c r="E12">
-        <v>6.061329707349903</v>
+        <v>10.49744740049709</v>
       </c>
       <c r="F12">
-        <v>59.09881388629202</v>
+        <v>57.79251160030181</v>
       </c>
       <c r="G12">
-        <v>2.076278759989384</v>
+        <v>3.756631515338199</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.57629120402641</v>
+        <v>29.06001758396022</v>
       </c>
       <c r="J12">
-        <v>6.306119547155175</v>
+        <v>10.15454524089844</v>
       </c>
       <c r="K12">
-        <v>23.95992692977816</v>
+        <v>20.65127302334923</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.64544817852838</v>
+        <v>20.20891901793821</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.874619404229199</v>
+        <v>5.339088185124014</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.181975813033462</v>
+        <v>4.177885541927023</v>
       </c>
       <c r="E13">
-        <v>6.058122367900116</v>
+        <v>10.49837567855359</v>
       </c>
       <c r="F13">
-        <v>58.97589501696434</v>
+        <v>57.76706703563971</v>
       </c>
       <c r="G13">
-        <v>2.077075897273959</v>
+        <v>3.756857687563049</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.54553487594225</v>
+        <v>29.05316033896061</v>
       </c>
       <c r="J13">
-        <v>6.304614874378031</v>
+        <v>10.15512197481361</v>
       </c>
       <c r="K13">
-        <v>23.88580570988653</v>
+        <v>20.63879488096435</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.59134081835714</v>
+        <v>20.2050611690971</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.855205843711348</v>
+        <v>5.326956920630791</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.181407341303553</v>
+        <v>4.178598083870502</v>
       </c>
       <c r="E14">
-        <v>6.047767546479642</v>
+        <v>10.50143931253585</v>
       </c>
       <c r="F14">
-        <v>58.57525743174222</v>
+        <v>57.6842760457171</v>
       </c>
       <c r="G14">
-        <v>2.079674277125834</v>
+        <v>3.757598515145581</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.4455104404865</v>
+        <v>29.03084868728402</v>
       </c>
       <c r="J14">
-        <v>6.299796437575013</v>
+        <v>10.15702825667419</v>
       </c>
       <c r="K14">
-        <v>23.6434087301705</v>
+        <v>20.5982087281184</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.41436008989847</v>
+        <v>20.19260288917422</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.843213829653136</v>
+        <v>5.319487684218261</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.181069395029924</v>
+        <v>4.179044229358999</v>
       </c>
       <c r="E15">
-        <v>6.041504988224114</v>
+        <v>10.50334378891577</v>
       </c>
       <c r="F15">
-        <v>58.3300236333049</v>
+        <v>57.63371077812678</v>
       </c>
       <c r="G15">
-        <v>2.081265028681249</v>
+        <v>3.758054778336334</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.38445401999424</v>
+        <v>29.01722172847516</v>
       </c>
       <c r="J15">
-        <v>6.296912438892174</v>
+        <v>10.1582154501105</v>
       </c>
       <c r="K15">
-        <v>23.49441032988231</v>
+        <v>20.57343224797989</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.30554576177887</v>
+        <v>20.18506651371328</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.772981336860889</v>
+        <v>5.276097846482042</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.17927198935521</v>
+        <v>4.181749408493574</v>
       </c>
       <c r="E16">
-        <v>6.006819203779887</v>
+        <v>10.514685596922</v>
       </c>
       <c r="F16">
-        <v>56.92702622664036</v>
+        <v>57.34623658638864</v>
       </c>
       <c r="G16">
-        <v>2.090373624123955</v>
+        <v>3.760707620227001</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.03770051674286</v>
+        <v>28.93974340283465</v>
       </c>
       <c r="J16">
-        <v>6.281392184182505</v>
+        <v>10.1653183642227</v>
       </c>
       <c r="K16">
-        <v>22.63225534118594</v>
+        <v>20.43276782500462</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.67550631503736</v>
+        <v>20.14333631322263</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.728580663304155</v>
+        <v>5.248959691677919</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.178275313456013</v>
+        <v>4.18354138292962</v>
       </c>
       <c r="E17">
-        <v>5.98658769708922</v>
+        <v>10.5220255839791</v>
       </c>
       <c r="F17">
-        <v>56.06819976686945</v>
+        <v>57.17197969400149</v>
       </c>
       <c r="G17">
-        <v>2.095960436993528</v>
+        <v>3.762369226806924</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.82767122073578</v>
+        <v>28.89276539444033</v>
       </c>
       <c r="J17">
-        <v>6.272741475409376</v>
+        <v>10.16994318710516</v>
       </c>
       <c r="K17">
-        <v>22.09564641798153</v>
+        <v>20.34769162124374</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.37477092512206</v>
+        <v>20.11904374867688</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.70257185624025</v>
+        <v>5.23316094326189</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.177734261285613</v>
+        <v>4.184620718512607</v>
       </c>
       <c r="E18">
-        <v>5.975326075636661</v>
+        <v>10.52638787765896</v>
       </c>
       <c r="F18">
-        <v>55.5748413471842</v>
+        <v>57.07254330020112</v>
       </c>
       <c r="G18">
-        <v>2.099175536577157</v>
+        <v>3.763337538872963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.70781862344515</v>
+        <v>28.86595026474626</v>
       </c>
       <c r="J18">
-        <v>6.268075119164664</v>
+        <v>10.172701570646</v>
       </c>
       <c r="K18">
-        <v>21.78406167342571</v>
+        <v>20.29922070130825</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.21451224374186</v>
+        <v>20.10555441457969</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.693686038417598</v>
+        <v>5.227779336334278</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.177556006754894</v>
+        <v>4.184994513944422</v>
       </c>
       <c r="E19">
-        <v>5.971576599841248</v>
+        <v>10.52788901909415</v>
       </c>
       <c r="F19">
-        <v>55.407899259253</v>
+        <v>57.03901367688671</v>
       </c>
       <c r="G19">
-        <v>2.100264596048524</v>
+        <v>3.763667560644307</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.66739844928916</v>
+        <v>28.8569066147896</v>
       </c>
       <c r="J19">
-        <v>6.266547330481183</v>
+        <v>10.17365239945617</v>
       </c>
       <c r="K19">
-        <v>21.67804936035714</v>
+        <v>20.28289019519197</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.16025682964118</v>
+        <v>20.10107036542049</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.733356186553406</v>
+        <v>5.251868250901742</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.178377933587243</v>
+        <v>4.183345589525899</v>
       </c>
       <c r="E20">
-        <v>5.988702349569466</v>
+        <v>10.5212296877186</v>
       </c>
       <c r="F20">
-        <v>56.1595582507777</v>
+        <v>57.19044816272255</v>
       </c>
       <c r="G20">
-        <v>2.095365579236414</v>
+        <v>3.762191042834331</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.84992997389552</v>
+        <v>28.89774508003498</v>
       </c>
       <c r="J20">
-        <v>6.273630114951481</v>
+        <v>10.16944069308094</v>
       </c>
       <c r="K20">
-        <v>22.15307140593169</v>
+        <v>20.35670059078091</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.40443395910129</v>
+        <v>20.12157979022549</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.860929129198535</v>
+        <v>5.330528195283616</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.181572132238689</v>
+        <v>4.178386772864575</v>
       </c>
       <c r="E21">
-        <v>6.050792261144814</v>
+        <v>10.50053363261483</v>
       </c>
       <c r="F21">
-        <v>58.6928986945735</v>
+        <v>57.70856332949759</v>
       </c>
       <c r="G21">
-        <v>2.078911256485171</v>
+        <v>3.757380398501946</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.47484571749028</v>
+        <v>29.03739392732984</v>
       </c>
       <c r="J21">
-        <v>6.301197610436334</v>
+        <v>10.15646426340545</v>
       </c>
       <c r="K21">
-        <v>23.71471493765517</v>
+        <v>20.61011250764423</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.46642824480911</v>
+        <v>20.19624247257734</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.939835235824258</v>
+        <v>5.380218316366925</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.184100154275304</v>
+        <v>4.175579654057779</v>
       </c>
       <c r="E22">
-        <v>6.09492840658134</v>
+        <v>10.48825707871434</v>
       </c>
       <c r="F22">
-        <v>60.35590282101236</v>
+        <v>58.05379782568928</v>
       </c>
       <c r="G22">
-        <v>2.068125965585963</v>
+        <v>3.754347693295238</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.89261922061345</v>
+        <v>29.13044012481618</v>
       </c>
       <c r="J22">
-        <v>6.322203605884563</v>
+        <v>10.14885810596833</v>
       </c>
       <c r="K22">
-        <v>24.71161523683114</v>
+        <v>20.77952045003238</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.19389249408302</v>
+        <v>20.24928368526291</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.898144919817485</v>
+        <v>5.353856437773099</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.18270224658378</v>
+        <v>4.177038148088041</v>
       </c>
       <c r="E23">
-        <v>6.071035331303746</v>
+        <v>10.49469506836597</v>
       </c>
       <c r="F23">
-        <v>59.46753834022049</v>
+        <v>57.86895563907122</v>
       </c>
       <c r="G23">
-        <v>2.073887621795073</v>
+        <v>3.755956160661948</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.66874110247182</v>
+        <v>29.08061953981694</v>
       </c>
       <c r="J23">
-        <v>6.31070660247835</v>
+        <v>10.15283765784025</v>
       </c>
       <c r="K23">
-        <v>24.18159056675074</v>
+        <v>20.68877382937696</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.80722985484252</v>
+        <v>20.22058914548418</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.731198671681277</v>
+        <v>5.250553903489874</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.178331441103851</v>
+        <v>4.183433954777735</v>
       </c>
       <c r="E24">
-        <v>5.987745165819884</v>
+        <v>10.52158906873695</v>
       </c>
       <c r="F24">
-        <v>56.11825387461407</v>
+        <v>57.18209623897542</v>
       </c>
       <c r="G24">
-        <v>2.095634504076014</v>
+        <v>3.762271559205928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.83986400977854</v>
+        <v>28.89549316199145</v>
       </c>
       <c r="J24">
-        <v>6.273227407111184</v>
+        <v>10.16966756066601</v>
       </c>
       <c r="K24">
-        <v>22.12711919174909</v>
+        <v>20.35262625987218</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.39102341654604</v>
+        <v>20.12043176015311</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.533257625313602</v>
+        <v>5.131897147806348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.174793099379444</v>
+        <v>4.192192020818051</v>
       </c>
       <c r="E25">
-        <v>5.912141950479093</v>
+        <v>10.55597224274384</v>
       </c>
       <c r="F25">
-        <v>52.5292042976226</v>
+        <v>56.47169954061116</v>
       </c>
       <c r="G25">
-        <v>2.119176978490029</v>
+        <v>3.769565995937047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.98181711674714</v>
+        <v>28.70368120063769</v>
       </c>
       <c r="J25">
-        <v>6.244519659720048</v>
+        <v>10.19158019798304</v>
       </c>
       <c r="K25">
-        <v>19.79758277294174</v>
+        <v>20.00790656397835</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.22248808362685</v>
+        <v>20.03088944481266</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.038478590194587</v>
+        <v>5.373460587611511</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.200236232346084</v>
+        <v>2.17257433834759</v>
       </c>
       <c r="E2">
-        <v>10.58592210995402</v>
+        <v>5.867700255313565</v>
       </c>
       <c r="F2">
-        <v>55.97689310170403</v>
+        <v>49.90378209132501</v>
       </c>
       <c r="G2">
-        <v>3.775357352031684</v>
+        <v>2.136792568314357</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.56943258219281</v>
+        <v>24.37727237844091</v>
       </c>
       <c r="J2">
-        <v>10.21095220581566</v>
+        <v>6.232377406800832</v>
       </c>
       <c r="K2">
-        <v>19.77108203066788</v>
+        <v>18.15248876848933</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.98108532810528</v>
+        <v>14.36359219048649</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.971485998590704</v>
+        <v>5.257012021298682</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.206681548598971</v>
+        <v>2.171070391570965</v>
       </c>
       <c r="E3">
-        <v>10.60911583372151</v>
+        <v>5.844128235600986</v>
       </c>
       <c r="F3">
-        <v>55.66012800396597</v>
+        <v>48.1367428054541</v>
       </c>
       <c r="G3">
-        <v>3.779547390959261</v>
+        <v>2.148993276551534</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.48289790478313</v>
+        <v>23.98308762677807</v>
       </c>
       <c r="J3">
-        <v>10.22610300432585</v>
+        <v>6.229286126153686</v>
       </c>
       <c r="K3">
-        <v>19.62194547617872</v>
+        <v>17.09696470012996</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.95747371372629</v>
+        <v>13.7837174681115</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.928570664651845</v>
+        <v>5.181691115115659</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.21112857077487</v>
+        <v>2.170081835663451</v>
       </c>
       <c r="E4">
-        <v>10.62478750365319</v>
+        <v>5.832743981412115</v>
       </c>
       <c r="F4">
-        <v>55.47508247768989</v>
+        <v>47.05907958974622</v>
       </c>
       <c r="G4">
-        <v>3.782251838293728</v>
+        <v>2.156638934825383</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.43198611629305</v>
+        <v>23.74830700690464</v>
       </c>
       <c r="J4">
-        <v>10.23640394129876</v>
+        <v>6.229780769505427</v>
       </c>
       <c r="K4">
-        <v>19.53621358696942</v>
+        <v>16.43489018135029</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.94799752428383</v>
+        <v>13.42950330197301</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.910639977739941</v>
+        <v>5.150066635953598</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.213063797015367</v>
+        <v>2.169654173463107</v>
       </c>
       <c r="E5">
-        <v>10.63153387264049</v>
+        <v>5.828861752248198</v>
       </c>
       <c r="F5">
-        <v>55.40209289360868</v>
+        <v>46.62202458499368</v>
       </c>
       <c r="G5">
-        <v>3.78338718399052</v>
+        <v>2.159796762164985</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.41180174333098</v>
+        <v>23.65440200477395</v>
       </c>
       <c r="J5">
-        <v>10.24085281191987</v>
+        <v>6.230564409761554</v>
       </c>
       <c r="K5">
-        <v>19.50277854823541</v>
+        <v>16.16178546146628</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.94540092869707</v>
+        <v>13.2857616302078</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.907636055765443</v>
+        <v>5.144760099118142</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.21339256814675</v>
+        <v>2.169581434031121</v>
       </c>
       <c r="E6">
-        <v>10.63267585581099</v>
+        <v>5.828262259091523</v>
       </c>
       <c r="F6">
-        <v>55.39012021583514</v>
+        <v>46.54958756637794</v>
       </c>
       <c r="G6">
-        <v>3.783577720082534</v>
+        <v>2.160323755737709</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.40848423343001</v>
+        <v>23.63891455552464</v>
       </c>
       <c r="J6">
-        <v>10.24160671631088</v>
+        <v>6.230729136127175</v>
       </c>
       <c r="K6">
-        <v>19.49731827885153</v>
+        <v>16.11624468324595</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.94504621969121</v>
+        <v>13.26193452292481</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.928330628494947</v>
+        <v>5.181268344167296</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.211154171864192</v>
+        <v>2.17007617896318</v>
       </c>
       <c r="E7">
-        <v>10.62487702938562</v>
+        <v>5.832688585255347</v>
       </c>
       <c r="F7">
-        <v>55.47408827224777</v>
+        <v>47.05317641715994</v>
       </c>
       <c r="G7">
-        <v>3.782267015115165</v>
+        <v>2.156681347470762</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.43171161989736</v>
+        <v>23.74703347255773</v>
       </c>
       <c r="J7">
-        <v>10.236462923244</v>
+        <v>6.229789006256413</v>
       </c>
       <c r="K7">
-        <v>19.53575654963775</v>
+        <v>16.4312200405012</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.94795738135101</v>
+        <v>13.42756210149215</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.015752618043939</v>
+        <v>5.334120276601221</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.202356920233945</v>
+        <v>2.172063878090695</v>
       </c>
       <c r="E8">
-        <v>10.59362255663338</v>
+        <v>5.85891936316446</v>
       </c>
       <c r="F8">
-        <v>55.86573743273978</v>
+        <v>49.29313148745496</v>
       </c>
       <c r="G8">
-        <v>3.776774813550891</v>
+        <v>2.14096943540598</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.53913711265431</v>
+        <v>24.23981939404117</v>
       </c>
       <c r="J8">
-        <v>10.21596908506249</v>
+        <v>6.230802770359132</v>
       </c>
       <c r="K8">
-        <v>19.71846880783853</v>
+        <v>17.79154914070078</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.97190354267261</v>
+        <v>14.16334910925978</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.172818675410919</v>
+        <v>5.602201474513702</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.188993756282844</v>
+        <v>2.17588831954532</v>
       </c>
       <c r="E9">
-        <v>10.54367121793453</v>
+        <v>5.935801390311716</v>
       </c>
       <c r="F9">
-        <v>56.70674065828276</v>
+        <v>53.73550870778128</v>
       </c>
       <c r="G9">
-        <v>3.767043915417692</v>
+        <v>2.111215642040211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.76722206447828</v>
+        <v>25.26640148794559</v>
       </c>
       <c r="J9">
-        <v>10.1836962587671</v>
+        <v>6.25272509317729</v>
       </c>
       <c r="K9">
-        <v>20.12149261533284</v>
+        <v>20.59848834344555</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.05856008849599</v>
+        <v>15.61596683260805</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.279168700597397</v>
+        <v>5.777983075724093</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.181551524709167</v>
+        <v>2.179390554395966</v>
       </c>
       <c r="E10">
-        <v>10.51386708899135</v>
+        <v>6.009179270731271</v>
       </c>
       <c r="F10">
-        <v>57.36622632168421</v>
+        <v>57.02511233214271</v>
       </c>
       <c r="G10">
-        <v>3.760519723704313</v>
+        <v>2.089736214316969</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.94513158071103</v>
+        <v>26.06179786940379</v>
       </c>
       <c r="J10">
-        <v>10.16480395835606</v>
+        <v>6.282421954791833</v>
       </c>
       <c r="K10">
-        <v>20.44253718826056</v>
+        <v>22.69309534792425</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.14617354301249</v>
+        <v>16.71998941413499</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.325530854144735</v>
+        <v>5.852918546631953</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.178682825672948</v>
+        <v>2.181342122666465</v>
       </c>
       <c r="E11">
-        <v>10.50180185096604</v>
+        <v>6.046565225592991</v>
       </c>
       <c r="F11">
-        <v>57.67459768317192</v>
+        <v>58.52835145977073</v>
       </c>
       <c r="G11">
-        <v>3.757685619164441</v>
+        <v>2.079978522215351</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.02824044366515</v>
+        <v>26.43382213335958</v>
       </c>
       <c r="J11">
-        <v>10.1572541252913</v>
+        <v>6.299240951814608</v>
       </c>
       <c r="K11">
-        <v>20.59346571113637</v>
+        <v>23.61494695547506</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.19115608210011</v>
+        <v>17.39357586719112</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.342792654225226</v>
+        <v>5.880531784415009</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.177670920938255</v>
+        <v>2.182154403153866</v>
       </c>
       <c r="E12">
-        <v>10.49744740049709</v>
+        <v>6.061329707349917</v>
       </c>
       <c r="F12">
-        <v>57.79251160030181</v>
+        <v>59.09881388629207</v>
       </c>
       <c r="G12">
-        <v>3.756631515338199</v>
+        <v>2.076278759989384</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.06001758396022</v>
+        <v>26.57629120402637</v>
       </c>
       <c r="J12">
-        <v>10.15454524089844</v>
+        <v>6.306119547155152</v>
       </c>
       <c r="K12">
-        <v>20.65127302334923</v>
+        <v>23.95992692977812</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.20891901793821</v>
+        <v>17.64544817852836</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.339088185124014</v>
+        <v>5.874619404229201</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.177885541927023</v>
+        <v>2.181975813033604</v>
       </c>
       <c r="E13">
-        <v>10.49837567855359</v>
+        <v>6.05812236790011</v>
       </c>
       <c r="F13">
-        <v>57.76706703563971</v>
+        <v>58.97589501696429</v>
       </c>
       <c r="G13">
-        <v>3.756857687563049</v>
+        <v>2.077075897273965</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.05316033896061</v>
+        <v>26.54553487594221</v>
       </c>
       <c r="J13">
-        <v>10.15512197481361</v>
+        <v>6.304614874378042</v>
       </c>
       <c r="K13">
-        <v>20.63879488096435</v>
+        <v>23.88580570988657</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.2050611690971</v>
+        <v>17.59134081835716</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.326956920630791</v>
+        <v>5.855205843711222</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.178598083870502</v>
+        <v>2.181407341303661</v>
       </c>
       <c r="E14">
-        <v>10.50143931253585</v>
+        <v>6.047767546479735</v>
       </c>
       <c r="F14">
-        <v>57.6842760457171</v>
+        <v>58.57525743174227</v>
       </c>
       <c r="G14">
-        <v>3.757598515145581</v>
+        <v>2.079674277125831</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.03084868728402</v>
+        <v>26.44551044048659</v>
       </c>
       <c r="J14">
-        <v>10.15702825667419</v>
+        <v>6.299796437575162</v>
       </c>
       <c r="K14">
-        <v>20.5982087281184</v>
+        <v>23.64340873017052</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.19260288917422</v>
+        <v>17.41436008989848</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.319487684218261</v>
+        <v>5.843213829653193</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.179044229358999</v>
+        <v>2.181069395030069</v>
       </c>
       <c r="E15">
-        <v>10.50334378891577</v>
+        <v>6.04150498822397</v>
       </c>
       <c r="F15">
-        <v>57.63371077812678</v>
+        <v>58.33002363330495</v>
       </c>
       <c r="G15">
-        <v>3.758054778336334</v>
+        <v>2.081265028681115</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.01722172847516</v>
+        <v>26.38445401999429</v>
       </c>
       <c r="J15">
-        <v>10.1582154501105</v>
+        <v>6.296912438892205</v>
       </c>
       <c r="K15">
-        <v>20.57343224797989</v>
+        <v>23.49441032988231</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.18506651371328</v>
+        <v>17.30554576177888</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.276097846482042</v>
+        <v>5.772981336860908</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.181749408493574</v>
+        <v>2.179271989355308</v>
       </c>
       <c r="E16">
-        <v>10.514685596922</v>
+        <v>6.006819203779741</v>
       </c>
       <c r="F16">
-        <v>57.34623658638864</v>
+        <v>56.92702622664029</v>
       </c>
       <c r="G16">
-        <v>3.760707620227001</v>
+        <v>2.090373624123961</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.93974340283465</v>
+        <v>26.03770051674287</v>
       </c>
       <c r="J16">
-        <v>10.1653183642227</v>
+        <v>6.281392184182462</v>
       </c>
       <c r="K16">
-        <v>20.43276782500462</v>
+        <v>22.63225534118586</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.14333631322263</v>
+        <v>16.67550631503731</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.248959691677919</v>
+        <v>5.728580663303977</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.18354138292962</v>
+        <v>2.178275313456024</v>
       </c>
       <c r="E17">
-        <v>10.5220255839791</v>
+        <v>5.986587697089213</v>
       </c>
       <c r="F17">
-        <v>57.17197969400149</v>
+        <v>56.06819976686941</v>
       </c>
       <c r="G17">
-        <v>3.762369226806924</v>
+        <v>2.095960436993525</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.89276539444033</v>
+        <v>25.8276712207358</v>
       </c>
       <c r="J17">
-        <v>10.16994318710516</v>
+        <v>6.272741475409418</v>
       </c>
       <c r="K17">
-        <v>20.34769162124374</v>
+        <v>22.09564641798158</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.11904374867688</v>
+        <v>16.37477092512204</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.23316094326189</v>
+        <v>5.702571856240239</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.184620718512607</v>
+        <v>2.177734261285642</v>
       </c>
       <c r="E18">
-        <v>10.52638787765896</v>
+        <v>5.975326075636613</v>
       </c>
       <c r="F18">
-        <v>57.07254330020112</v>
+        <v>55.57484134718427</v>
       </c>
       <c r="G18">
-        <v>3.763337538872963</v>
+        <v>2.099175536577019</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.86595026474626</v>
+        <v>25.70781862344518</v>
       </c>
       <c r="J18">
-        <v>10.172701570646</v>
+        <v>6.268075119164672</v>
       </c>
       <c r="K18">
-        <v>20.29922070130825</v>
+        <v>21.78406167342563</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.10555441457969</v>
+        <v>16.21451224374188</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.227779336334278</v>
+        <v>5.693686038417725</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.184994513944422</v>
+        <v>2.177556006755046</v>
       </c>
       <c r="E19">
-        <v>10.52788901909415</v>
+        <v>5.971576599841153</v>
       </c>
       <c r="F19">
-        <v>57.03901367688671</v>
+        <v>55.40789925925292</v>
       </c>
       <c r="G19">
-        <v>3.763667560644307</v>
+        <v>2.100264596048392</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.8569066147896</v>
+        <v>25.66739844928906</v>
       </c>
       <c r="J19">
-        <v>10.17365239945617</v>
+        <v>6.266547330481163</v>
       </c>
       <c r="K19">
-        <v>20.28289019519197</v>
+        <v>21.67804936035713</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.10107036542049</v>
+        <v>16.16025682964116</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.251868250901742</v>
+        <v>5.733356186553417</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.183345589525899</v>
+        <v>2.178377933587204</v>
       </c>
       <c r="E20">
-        <v>10.5212296877186</v>
+        <v>5.988702349569451</v>
       </c>
       <c r="F20">
-        <v>57.19044816272255</v>
+        <v>56.1595582507776</v>
       </c>
       <c r="G20">
-        <v>3.762191042834331</v>
+        <v>2.09536557923629</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.89774508003498</v>
+        <v>25.84992997389547</v>
       </c>
       <c r="J20">
-        <v>10.16944069308094</v>
+        <v>6.273630114951501</v>
       </c>
       <c r="K20">
-        <v>20.35670059078091</v>
+        <v>22.15307140593163</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.12157979022549</v>
+        <v>16.4044339591013</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.330528195283616</v>
+        <v>5.860929129198531</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.178386772864575</v>
+        <v>2.181572132238844</v>
       </c>
       <c r="E21">
-        <v>10.50053363261483</v>
+        <v>6.050792261144735</v>
       </c>
       <c r="F21">
-        <v>57.70856332949759</v>
+        <v>58.69289869457349</v>
       </c>
       <c r="G21">
-        <v>3.757380398501946</v>
+        <v>2.078911256485177</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.03739392732984</v>
+        <v>26.47484571749026</v>
       </c>
       <c r="J21">
-        <v>10.15646426340545</v>
+        <v>6.301197610436398</v>
       </c>
       <c r="K21">
-        <v>20.61011250764423</v>
+        <v>23.71471493765518</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.19624247257734</v>
+        <v>17.46642824480914</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.380218316366925</v>
+        <v>5.939835235824092</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.175579654057779</v>
+        <v>2.184100154275167</v>
       </c>
       <c r="E22">
-        <v>10.48825707871434</v>
+        <v>6.094928406581346</v>
       </c>
       <c r="F22">
-        <v>58.05379782568928</v>
+        <v>60.35590282101229</v>
       </c>
       <c r="G22">
-        <v>3.754347693295238</v>
+        <v>2.068125965586236</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.13044012481618</v>
+        <v>26.89261922061347</v>
       </c>
       <c r="J22">
-        <v>10.14885810596833</v>
+        <v>6.322203605884521</v>
       </c>
       <c r="K22">
-        <v>20.77952045003238</v>
+        <v>24.71161523683113</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.24928368526291</v>
+        <v>18.19389249408298</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.353856437773099</v>
+        <v>5.898144919817485</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.177038148088041</v>
+        <v>2.182702246583732</v>
       </c>
       <c r="E23">
-        <v>10.49469506836597</v>
+        <v>6.071035331303752</v>
       </c>
       <c r="F23">
-        <v>57.86895563907122</v>
+        <v>59.46753834022051</v>
       </c>
       <c r="G23">
-        <v>3.755956160661948</v>
+        <v>2.073887621795076</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.08061953981694</v>
+        <v>26.66874110247182</v>
       </c>
       <c r="J23">
-        <v>10.15283765784025</v>
+        <v>6.310706602478334</v>
       </c>
       <c r="K23">
-        <v>20.68877382937696</v>
+        <v>24.18159056675074</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.22058914548418</v>
+        <v>17.80722985484253</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.250553903489874</v>
+        <v>5.731198671681214</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.183433954777735</v>
+        <v>2.178331441104002</v>
       </c>
       <c r="E24">
-        <v>10.52158906873695</v>
+        <v>5.987745165819923</v>
       </c>
       <c r="F24">
-        <v>57.18209623897542</v>
+        <v>56.11825387461402</v>
       </c>
       <c r="G24">
-        <v>3.762271559205928</v>
+        <v>2.095634504075887</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.89549316199145</v>
+        <v>25.83986400977856</v>
       </c>
       <c r="J24">
-        <v>10.16966756066601</v>
+        <v>6.27322740711124</v>
       </c>
       <c r="K24">
-        <v>20.35262625987218</v>
+        <v>22.12711919174912</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.12043176015311</v>
+        <v>16.39102341654602</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.131897147806348</v>
+        <v>5.533257625313535</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.192192020818051</v>
+        <v>2.174793099379367</v>
       </c>
       <c r="E25">
-        <v>10.55597224274384</v>
+        <v>5.912141950479138</v>
       </c>
       <c r="F25">
-        <v>56.47169954061116</v>
+        <v>52.52920429762261</v>
       </c>
       <c r="G25">
-        <v>3.769565995937047</v>
+        <v>2.119176978490151</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.70368120063769</v>
+        <v>24.98181711674718</v>
       </c>
       <c r="J25">
-        <v>10.19158019798304</v>
+        <v>6.244519659720026</v>
       </c>
       <c r="K25">
-        <v>20.00790656397835</v>
+        <v>19.79758277294179</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.03088944481266</v>
+        <v>15.22248808362684</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.373460587611511</v>
+        <v>6.453528413888451</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.17257433834759</v>
+        <v>6.461044178907313</v>
       </c>
       <c r="E2">
-        <v>5.867700255313565</v>
+        <v>11.29325786068468</v>
       </c>
       <c r="F2">
-        <v>49.90378209132501</v>
+        <v>30.10992064077008</v>
       </c>
       <c r="G2">
-        <v>2.136792568314357</v>
+        <v>37.40583662433038</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.742434767777968</v>
       </c>
       <c r="I2">
-        <v>24.37727237844091</v>
+        <v>3.785713525351738</v>
       </c>
       <c r="J2">
-        <v>6.232377406800832</v>
+        <v>12.05281314457196</v>
       </c>
       <c r="K2">
-        <v>18.15248876848933</v>
+        <v>15.25986248933723</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.278982069811669</v>
       </c>
       <c r="M2">
-        <v>14.36359219048649</v>
+        <v>18.83154794238268</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.257012021298682</v>
+        <v>6.112918577896647</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.171070391570965</v>
+        <v>6.124239344815956</v>
       </c>
       <c r="E3">
-        <v>5.844128235600986</v>
+        <v>10.70353818613224</v>
       </c>
       <c r="F3">
-        <v>48.1367428054541</v>
+        <v>29.19054456444406</v>
       </c>
       <c r="G3">
-        <v>2.148993276551534</v>
+        <v>36.13993528502915</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.045583544719827</v>
       </c>
       <c r="I3">
-        <v>23.98308762677807</v>
+        <v>3.906294439470631</v>
       </c>
       <c r="J3">
-        <v>6.229286126153686</v>
+        <v>11.91562859027169</v>
       </c>
       <c r="K3">
-        <v>17.09696470012996</v>
+        <v>15.4811896475312</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.023293193905018</v>
       </c>
       <c r="M3">
-        <v>13.7837174681115</v>
+        <v>17.61066374934589</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.181691115115659</v>
+        <v>5.889484132687832</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.170081835663451</v>
+        <v>5.909540208465396</v>
       </c>
       <c r="E4">
-        <v>5.832743981412115</v>
+        <v>10.32585216611847</v>
       </c>
       <c r="F4">
-        <v>47.05907958974622</v>
+        <v>28.62171083962281</v>
       </c>
       <c r="G4">
-        <v>2.156638934825383</v>
+        <v>35.35725578119311</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.237776043774741</v>
       </c>
       <c r="I4">
-        <v>23.74830700690464</v>
+        <v>3.983346109946891</v>
       </c>
       <c r="J4">
-        <v>6.229780769505427</v>
+        <v>11.83491505317509</v>
       </c>
       <c r="K4">
-        <v>16.43489018135029</v>
+        <v>15.61798527528017</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.861027762947426</v>
       </c>
       <c r="M4">
-        <v>13.42950330197301</v>
+        <v>16.82231949569325</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.150066635953598</v>
+        <v>5.785513498062592</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.169654173463107</v>
+        <v>5.823407385496772</v>
       </c>
       <c r="E5">
-        <v>5.828861752248198</v>
+        <v>10.16951601293164</v>
       </c>
       <c r="F5">
-        <v>46.62202458499368</v>
+        <v>28.37532491139505</v>
       </c>
       <c r="G5">
-        <v>2.159796762164985</v>
+        <v>35.01259766108939</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.317731543128673</v>
       </c>
       <c r="I5">
-        <v>23.65440200477395</v>
+        <v>4.018143450487494</v>
       </c>
       <c r="J5">
-        <v>6.230564409761554</v>
+        <v>11.79805963236764</v>
       </c>
       <c r="K5">
-        <v>16.16178546146628</v>
+        <v>15.66700927389423</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.793268464960345</v>
       </c>
       <c r="M5">
-        <v>13.2857616302078</v>
+        <v>16.50113322209516</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.144760099118142</v>
+        <v>5.75657883424905</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.169581434031121</v>
+        <v>5.813020779305571</v>
       </c>
       <c r="E6">
-        <v>5.828262259091523</v>
+        <v>10.14507696919807</v>
       </c>
       <c r="F6">
-        <v>46.54958756637794</v>
+        <v>28.31756959174209</v>
       </c>
       <c r="G6">
-        <v>2.160323755737709</v>
+        <v>34.92511031145274</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.331195698783583</v>
       </c>
       <c r="I6">
-        <v>23.63891455552464</v>
+        <v>4.027318039140855</v>
       </c>
       <c r="J6">
-        <v>6.230729136127175</v>
+        <v>11.78608052231994</v>
       </c>
       <c r="K6">
-        <v>16.11624468324595</v>
+        <v>15.6667138999341</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.781520524469322</v>
       </c>
       <c r="M6">
-        <v>13.26193452292481</v>
+        <v>16.45922350979641</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.181268344167296</v>
+        <v>5.857325235537669</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.17007617896318</v>
+        <v>5.919180538167006</v>
       </c>
       <c r="E7">
-        <v>5.832688585255347</v>
+        <v>10.32845403403197</v>
       </c>
       <c r="F7">
-        <v>47.05317641715994</v>
+        <v>28.57305296435195</v>
       </c>
       <c r="G7">
-        <v>2.156681347470762</v>
+        <v>35.2711699432924</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.239092770376037</v>
       </c>
       <c r="I7">
-        <v>23.74703347255773</v>
+        <v>3.992656916564049</v>
       </c>
       <c r="J7">
-        <v>6.229789006256413</v>
+        <v>11.81836713615265</v>
       </c>
       <c r="K7">
-        <v>16.4312200405012</v>
+        <v>15.59558753131339</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.858990935170228</v>
       </c>
       <c r="M7">
-        <v>13.42756210149215</v>
+        <v>16.85005841569689</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.334120276601221</v>
+        <v>6.300712414096377</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.172063878090695</v>
+        <v>6.359945681020163</v>
       </c>
       <c r="E8">
-        <v>5.85891936316446</v>
+        <v>11.09902897626388</v>
       </c>
       <c r="F8">
-        <v>49.29313148745496</v>
+        <v>29.73649738953702</v>
       </c>
       <c r="G8">
-        <v>2.14096943540598</v>
+        <v>36.86785540084084</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.846013627477007</v>
       </c>
       <c r="I8">
-        <v>24.23981939404117</v>
+        <v>3.837768962244346</v>
       </c>
       <c r="J8">
-        <v>6.230802770359132</v>
+        <v>11.98401058112256</v>
       </c>
       <c r="K8">
-        <v>17.79154914070078</v>
+        <v>15.30591137893933</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.190520675938535</v>
       </c>
       <c r="M8">
-        <v>14.16334910925978</v>
+        <v>18.45775613624578</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.602201474513702</v>
+        <v>7.105708265282201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.17588831954532</v>
+        <v>7.142401847318311</v>
       </c>
       <c r="E9">
-        <v>5.935801390311716</v>
+        <v>12.47672857682495</v>
       </c>
       <c r="F9">
-        <v>53.73550870778128</v>
+        <v>32.05055994007714</v>
       </c>
       <c r="G9">
-        <v>2.111215642040211</v>
+        <v>40.0792284780641</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.989352712239772</v>
       </c>
       <c r="I9">
-        <v>25.26640148794559</v>
+        <v>3.543092012135572</v>
       </c>
       <c r="J9">
-        <v>6.25272509317729</v>
+        <v>12.36530816031453</v>
       </c>
       <c r="K9">
-        <v>20.59848834344555</v>
+        <v>14.78418061170071</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.799481239197849</v>
       </c>
       <c r="M9">
-        <v>15.61596683260805</v>
+        <v>21.25354034592982</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.777983075724093</v>
+        <v>7.645911546501965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.179390554395966</v>
+        <v>7.613316393281187</v>
       </c>
       <c r="E10">
-        <v>6.009179270731271</v>
+        <v>13.19510424276331</v>
       </c>
       <c r="F10">
-        <v>57.02511233214271</v>
+        <v>33.39862255974155</v>
       </c>
       <c r="G10">
-        <v>2.089736214316969</v>
+        <v>41.9549557807028</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.465672305017746</v>
       </c>
       <c r="I10">
-        <v>26.06179786940379</v>
+        <v>3.348281497125677</v>
       </c>
       <c r="J10">
-        <v>6.282421954791833</v>
+        <v>12.57458143837512</v>
       </c>
       <c r="K10">
-        <v>22.69309534792425</v>
+        <v>14.34865479846792</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.103985116865262</v>
       </c>
       <c r="M10">
-        <v>16.71998941413499</v>
+        <v>23.09690558609713</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.852918546631953</v>
+        <v>8.123136656900334</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.181342122666465</v>
+        <v>7.254619508516083</v>
       </c>
       <c r="E11">
-        <v>6.046565225592991</v>
+        <v>11.68398332879313</v>
       </c>
       <c r="F11">
-        <v>58.52835145977073</v>
+        <v>31.40482079308269</v>
       </c>
       <c r="G11">
-        <v>2.079978522215351</v>
+        <v>39.25160065135746</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.231756922327485</v>
       </c>
       <c r="I11">
-        <v>26.43382213335958</v>
+        <v>3.304396789743918</v>
       </c>
       <c r="J11">
-        <v>6.299240951814608</v>
+        <v>11.94448427806368</v>
       </c>
       <c r="K11">
-        <v>23.61494695547506</v>
+        <v>13.80789976507933</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.297916897971128</v>
       </c>
       <c r="M11">
-        <v>17.39357586719112</v>
+        <v>23.59833271502652</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.880531784415009</v>
+        <v>8.460096663633987</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.182154403153866</v>
+        <v>6.839795715281555</v>
       </c>
       <c r="E12">
-        <v>6.061329707349917</v>
+        <v>10.30565741613379</v>
       </c>
       <c r="F12">
-        <v>59.09881388629207</v>
+        <v>29.47401647122126</v>
       </c>
       <c r="G12">
-        <v>2.076278759989384</v>
+        <v>36.64094644052822</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.384632034879744</v>
       </c>
       <c r="I12">
-        <v>26.57629120402637</v>
+        <v>3.29067269253306</v>
       </c>
       <c r="J12">
-        <v>6.306119547155152</v>
+        <v>11.38688640274844</v>
       </c>
       <c r="K12">
-        <v>23.95992692977812</v>
+        <v>13.54934264644221</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.63710385578416</v>
       </c>
       <c r="M12">
-        <v>17.64544817852836</v>
+        <v>23.60690058808928</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.874619404229201</v>
+        <v>8.680281214610613</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.181975813033604</v>
+        <v>6.359315940603813</v>
       </c>
       <c r="E13">
-        <v>6.05812236790011</v>
+        <v>8.947668627838482</v>
       </c>
       <c r="F13">
-        <v>58.97589501696429</v>
+        <v>27.38128209658593</v>
       </c>
       <c r="G13">
-        <v>2.077075897273965</v>
+        <v>33.77846840629562</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.635048971479984</v>
       </c>
       <c r="I13">
-        <v>26.54553487594221</v>
+        <v>3.31296658633994</v>
       </c>
       <c r="J13">
-        <v>6.304614874378042</v>
+        <v>10.82571631486222</v>
       </c>
       <c r="K13">
-        <v>23.88580570988657</v>
+        <v>13.45841944587704</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.064207237254651</v>
       </c>
       <c r="M13">
-        <v>17.59134081835716</v>
+        <v>23.27519642807011</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.855205843711222</v>
+        <v>8.776971384275821</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.181407341303661</v>
+        <v>5.991456377997192</v>
       </c>
       <c r="E14">
-        <v>6.047767546479735</v>
+        <v>8.034612517250173</v>
       </c>
       <c r="F14">
-        <v>58.57525743174227</v>
+        <v>25.82364327079158</v>
       </c>
       <c r="G14">
-        <v>2.079674277125831</v>
+        <v>31.62100283972815</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.54632770279772</v>
       </c>
       <c r="I14">
-        <v>26.44551044048659</v>
+        <v>3.347405761450311</v>
       </c>
       <c r="J14">
-        <v>6.299796437575162</v>
+        <v>10.42981273073057</v>
       </c>
       <c r="K14">
-        <v>23.64340873017052</v>
+        <v>13.4781814174543</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.734719625996944</v>
       </c>
       <c r="M14">
-        <v>17.41436008989848</v>
+        <v>22.89239299379143</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.843213829653193</v>
+        <v>8.76524708236642</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.181069395030069</v>
+        <v>5.889966425243042</v>
       </c>
       <c r="E15">
-        <v>6.04150498822397</v>
+        <v>7.811078134212964</v>
       </c>
       <c r="F15">
-        <v>58.33002363330495</v>
+        <v>25.39736897892122</v>
       </c>
       <c r="G15">
-        <v>2.081265028681115</v>
+        <v>31.01741916704785</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.752657095731967</v>
       </c>
       <c r="I15">
-        <v>26.38445401999429</v>
+        <v>3.367733888305548</v>
       </c>
       <c r="J15">
-        <v>6.296912438892205</v>
+        <v>10.32870300282059</v>
       </c>
       <c r="K15">
-        <v>23.49441032988231</v>
+        <v>13.50830627982355</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.66235871049243</v>
       </c>
       <c r="M15">
-        <v>17.30554576177888</v>
+        <v>22.73460313284554</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.772981336860908</v>
+        <v>8.498271507794611</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.179271989355308</v>
+        <v>5.765400765205778</v>
       </c>
       <c r="E16">
-        <v>6.006819203779741</v>
+        <v>7.702220307738888</v>
       </c>
       <c r="F16">
-        <v>56.92702622664029</v>
+        <v>25.14364828113262</v>
       </c>
       <c r="G16">
-        <v>2.090373624123961</v>
+        <v>30.6132262023031</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.465907190677705</v>
       </c>
       <c r="I16">
-        <v>26.03770051674287</v>
+        <v>3.451224423321622</v>
       </c>
       <c r="J16">
-        <v>6.281392184182462</v>
+        <v>10.33807185369421</v>
       </c>
       <c r="K16">
-        <v>22.63225534118586</v>
+        <v>13.69699663544908</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.62732487760542</v>
       </c>
       <c r="M16">
-        <v>16.67550631503731</v>
+        <v>22.04010778143403</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.728580663303977</v>
+        <v>8.233694752376239</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.178275313456024</v>
+        <v>5.872423883279685</v>
       </c>
       <c r="E17">
-        <v>5.986587697089213</v>
+        <v>8.101261840329441</v>
       </c>
       <c r="F17">
-        <v>56.06819976686941</v>
+        <v>25.79418359089368</v>
       </c>
       <c r="G17">
-        <v>2.095960436993525</v>
+        <v>31.48408124672276</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.708265899519172</v>
       </c>
       <c r="I17">
-        <v>25.8276712207358</v>
+        <v>3.497822103535646</v>
       </c>
       <c r="J17">
-        <v>6.272741475409418</v>
+        <v>10.55537374229573</v>
       </c>
       <c r="K17">
-        <v>22.09564641798158</v>
+        <v>13.82592118188863</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.761383054393287</v>
       </c>
       <c r="M17">
-        <v>16.37477092512204</v>
+        <v>21.71082509736314</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.702571856240239</v>
+        <v>7.96839788937895</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.177734261285642</v>
+        <v>6.188179738457151</v>
       </c>
       <c r="E18">
-        <v>5.975326075636613</v>
+        <v>9.0690974627621</v>
       </c>
       <c r="F18">
-        <v>55.57484134718427</v>
+        <v>27.32993124452663</v>
       </c>
       <c r="G18">
-        <v>2.099175536577019</v>
+        <v>33.60194441279145</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.495704957148158</v>
       </c>
       <c r="I18">
-        <v>25.70781862344518</v>
+        <v>3.507541269109447</v>
       </c>
       <c r="J18">
-        <v>6.268075119164672</v>
+        <v>10.98977301207575</v>
       </c>
       <c r="K18">
-        <v>21.78406167342563</v>
+        <v>13.96038978621955</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.138602323227158</v>
       </c>
       <c r="M18">
-        <v>16.21451224374188</v>
+        <v>21.64695757806069</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.693686038417725</v>
+        <v>7.678908207587643</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.177556006755046</v>
+        <v>6.663947130891579</v>
       </c>
       <c r="E19">
-        <v>5.971576599841153</v>
+        <v>10.50554575734537</v>
       </c>
       <c r="F19">
-        <v>55.40789925925292</v>
+        <v>29.39085097747139</v>
       </c>
       <c r="G19">
-        <v>2.100264596048392</v>
+        <v>36.42064637338223</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.164955865409758</v>
       </c>
       <c r="I19">
-        <v>25.66739844928906</v>
+        <v>3.503221864491955</v>
       </c>
       <c r="J19">
-        <v>6.266547330481163</v>
+        <v>11.54717790702245</v>
       </c>
       <c r="K19">
-        <v>21.67804936035713</v>
+        <v>14.13098530379668</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.777373718205782</v>
       </c>
       <c r="M19">
-        <v>16.16025682964116</v>
+        <v>21.85124217962241</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.733356186553417</v>
+        <v>7.432458880219748</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.178377933587204</v>
+        <v>7.515809712466755</v>
       </c>
       <c r="E20">
-        <v>5.988702349569451</v>
+        <v>13.01206092993708</v>
       </c>
       <c r="F20">
-        <v>56.1595582507776</v>
+        <v>32.91262770061717</v>
       </c>
       <c r="G20">
-        <v>2.09536557923629</v>
+        <v>41.23304492147158</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.339654252096997</v>
       </c>
       <c r="I20">
-        <v>25.84992997389547</v>
+        <v>3.426883206603853</v>
       </c>
       <c r="J20">
-        <v>6.273630114951501</v>
+        <v>12.46886555304777</v>
       </c>
       <c r="K20">
-        <v>22.15307140593163</v>
+        <v>14.39490991078807</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.017240765890477</v>
       </c>
       <c r="M20">
-        <v>16.4044339591013</v>
+        <v>22.70015820525844</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.860929129198531</v>
+        <v>7.793139211806959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.181572132238844</v>
+        <v>7.962244658734194</v>
       </c>
       <c r="E21">
-        <v>6.050792261144735</v>
+        <v>13.87424163203251</v>
       </c>
       <c r="F21">
-        <v>58.69289869457349</v>
+        <v>34.42149199808814</v>
       </c>
       <c r="G21">
-        <v>2.078911256485177</v>
+        <v>43.33043633766211</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.727528474962746</v>
       </c>
       <c r="I21">
-        <v>26.47484571749026</v>
+        <v>3.270885908758805</v>
       </c>
       <c r="J21">
-        <v>6.301197610436398</v>
+        <v>12.77342225266077</v>
       </c>
       <c r="K21">
-        <v>23.71471493765518</v>
+        <v>14.14083827212706</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.421510480256217</v>
       </c>
       <c r="M21">
-        <v>17.46642824480914</v>
+        <v>24.09780804700182</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.939835235824092</v>
+        <v>8.062501401522193</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.184100154275167</v>
+        <v>8.201270990181552</v>
       </c>
       <c r="E22">
-        <v>6.094928406581346</v>
+        <v>14.30651888728271</v>
       </c>
       <c r="F22">
-        <v>60.35590282101229</v>
+        <v>35.2933521495026</v>
       </c>
       <c r="G22">
-        <v>2.068125965586236</v>
+        <v>44.565019524885</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.967345089540359</v>
       </c>
       <c r="I22">
-        <v>26.89261922061347</v>
+        <v>3.161217222474225</v>
       </c>
       <c r="J22">
-        <v>6.322203605884521</v>
+        <v>12.95243213326543</v>
       </c>
       <c r="K22">
-        <v>24.71161523683113</v>
+        <v>13.98119050594607</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.622492286863441</v>
       </c>
       <c r="M22">
-        <v>18.19389249408298</v>
+        <v>24.92961607833582</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.898144919817485</v>
+        <v>7.947935872618552</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.182702246583732</v>
+        <v>8.064751625727931</v>
       </c>
       <c r="E23">
-        <v>6.071035331303752</v>
+        <v>14.07284073786638</v>
       </c>
       <c r="F23">
-        <v>59.46753834022051</v>
+        <v>34.87232716993952</v>
       </c>
       <c r="G23">
-        <v>2.073887621795076</v>
+        <v>43.98366976015662</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.839834721335157</v>
       </c>
       <c r="I23">
-        <v>26.66874110247182</v>
+        <v>3.208549199029508</v>
       </c>
       <c r="J23">
-        <v>6.310706602478334</v>
+        <v>12.87339157381778</v>
       </c>
       <c r="K23">
-        <v>24.18159056675074</v>
+        <v>14.091814081125</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.516742992624252</v>
       </c>
       <c r="M23">
-        <v>17.80722985484253</v>
+        <v>24.46126683885599</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.731198671681214</v>
+        <v>7.445172815087512</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.178331441104002</v>
+        <v>7.547090441086711</v>
       </c>
       <c r="E24">
-        <v>5.987745165819923</v>
+        <v>13.16567758156192</v>
       </c>
       <c r="F24">
-        <v>56.11825387461402</v>
+        <v>33.19355110612388</v>
       </c>
       <c r="G24">
-        <v>2.095634504075887</v>
+        <v>41.64244241799626</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.349220311385984</v>
       </c>
       <c r="I24">
-        <v>25.83986400977856</v>
+        <v>3.409684092466398</v>
       </c>
       <c r="J24">
-        <v>6.27322740711124</v>
+        <v>12.55567604542352</v>
       </c>
       <c r="K24">
-        <v>22.12711919174912</v>
+        <v>14.47069872995823</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.104279733946433</v>
       </c>
       <c r="M24">
-        <v>16.39102341654602</v>
+        <v>22.66365691277641</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.533257625313535</v>
+        <v>6.852133793090856</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.174793099379367</v>
+        <v>6.954532836228686</v>
       </c>
       <c r="E25">
-        <v>5.912141950479138</v>
+        <v>12.12503987060728</v>
       </c>
       <c r="F25">
-        <v>52.52920429762261</v>
+        <v>31.35675134679873</v>
       </c>
       <c r="G25">
-        <v>2.119176978490151</v>
+        <v>39.08709216480123</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.80227083292576</v>
       </c>
       <c r="I25">
-        <v>24.98181711674718</v>
+        <v>3.635935837131008</v>
       </c>
       <c r="J25">
-        <v>6.244519659720026</v>
+        <v>12.23158311635403</v>
       </c>
       <c r="K25">
-        <v>19.79758277294179</v>
+        <v>14.88495590937042</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.637704365439971</v>
       </c>
       <c r="M25">
-        <v>15.22248808362684</v>
+        <v>20.57799312543528</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.453528413888451</v>
+        <v>6.696098145636172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.461044178907313</v>
+        <v>6.520688850741553</v>
       </c>
       <c r="E2">
-        <v>11.29325786068468</v>
+        <v>11.33340893145186</v>
       </c>
       <c r="F2">
-        <v>30.10992064077008</v>
+        <v>29.88360092948686</v>
       </c>
       <c r="G2">
-        <v>37.40583662433038</v>
+        <v>36.60698187033061</v>
       </c>
       <c r="H2">
-        <v>1.742434767777968</v>
+        <v>1.720400934708648</v>
       </c>
       <c r="I2">
-        <v>3.785713525351738</v>
+        <v>3.459438412562196</v>
       </c>
       <c r="J2">
-        <v>12.05281314457196</v>
+        <v>12.27076611582412</v>
       </c>
       <c r="K2">
-        <v>15.25986248933723</v>
+        <v>14.40349745501155</v>
       </c>
       <c r="L2">
-        <v>7.278982069811669</v>
+        <v>11.46604696482366</v>
       </c>
       <c r="M2">
-        <v>18.83154794238268</v>
+        <v>9.756943233438605</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.284276435871809</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.88460103478278</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.112918577896647</v>
+        <v>6.440280706100884</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.124239344815956</v>
+        <v>6.174059048886417</v>
       </c>
       <c r="E3">
-        <v>10.70353818613224</v>
+        <v>10.7454265779142</v>
       </c>
       <c r="F3">
-        <v>29.19054456444406</v>
+        <v>29.01947312562155</v>
       </c>
       <c r="G3">
-        <v>36.13993528502915</v>
+        <v>35.48024125529847</v>
       </c>
       <c r="H3">
-        <v>2.045583544719827</v>
+        <v>2.013958828556199</v>
       </c>
       <c r="I3">
-        <v>3.906294439470631</v>
+        <v>3.558907495165389</v>
       </c>
       <c r="J3">
-        <v>11.91562859027169</v>
+        <v>12.10310309741501</v>
       </c>
       <c r="K3">
-        <v>15.4811896475312</v>
+        <v>14.62323368446039</v>
       </c>
       <c r="L3">
-        <v>7.023293193905018</v>
+        <v>11.6538744925433</v>
       </c>
       <c r="M3">
-        <v>17.61066374934589</v>
+        <v>9.949878434352412</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.034614345335238</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.61464803316435</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.889484132687832</v>
+        <v>6.273264726666357</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.909540208465396</v>
+        <v>5.953121031882331</v>
       </c>
       <c r="E4">
-        <v>10.32585216611847</v>
+        <v>10.36896292512804</v>
       </c>
       <c r="F4">
-        <v>28.62171083962281</v>
+        <v>28.48419898169124</v>
       </c>
       <c r="G4">
-        <v>35.35725578119311</v>
+        <v>34.78955154298384</v>
       </c>
       <c r="H4">
-        <v>2.237776043774741</v>
+        <v>2.200134711431783</v>
       </c>
       <c r="I4">
-        <v>3.983346109946891</v>
+        <v>3.622803410811004</v>
       </c>
       <c r="J4">
-        <v>11.83491505317509</v>
+        <v>12.00010746503475</v>
       </c>
       <c r="K4">
-        <v>15.61798527528017</v>
+        <v>14.75899988171253</v>
       </c>
       <c r="L4">
-        <v>6.861027762947426</v>
+        <v>11.77580727253525</v>
       </c>
       <c r="M4">
-        <v>16.82231949569325</v>
+        <v>10.07694728228661</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.876217555007125</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.79342910690699</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.785513498062592</v>
+        <v>6.195276467901607</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.823407385496772</v>
+        <v>5.863900175705467</v>
       </c>
       <c r="E5">
-        <v>10.16951601293164</v>
+        <v>10.21295416503207</v>
       </c>
       <c r="F5">
-        <v>28.37532491139505</v>
+        <v>28.25339812803391</v>
       </c>
       <c r="G5">
-        <v>35.01259766108939</v>
+        <v>34.48750345483002</v>
       </c>
       <c r="H5">
-        <v>2.317731543128673</v>
+        <v>2.277593584760139</v>
       </c>
       <c r="I5">
-        <v>4.018143450487494</v>
+        <v>3.652653275761739</v>
       </c>
       <c r="J5">
-        <v>11.79805963236764</v>
+        <v>11.95401813276708</v>
       </c>
       <c r="K5">
-        <v>15.66700927389423</v>
+        <v>14.8086708393066</v>
       </c>
       <c r="L5">
-        <v>6.793268464960345</v>
+        <v>11.82001549689755</v>
       </c>
       <c r="M5">
-        <v>16.50113322209516</v>
+        <v>10.12918014282763</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.810128933450265</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.45675962718402</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.75657883424905</v>
+        <v>6.173054811402485</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.813020779305571</v>
+        <v>5.852377365945808</v>
       </c>
       <c r="E6">
-        <v>10.14507696919807</v>
+        <v>10.18830285295939</v>
       </c>
       <c r="F6">
-        <v>28.31756959174209</v>
+        <v>28.20073157603543</v>
       </c>
       <c r="G6">
-        <v>34.92511031145274</v>
+        <v>34.41160333365755</v>
       </c>
       <c r="H6">
-        <v>2.331195698783583</v>
+        <v>2.29062870923443</v>
       </c>
       <c r="I6">
-        <v>4.027318039140855</v>
+        <v>3.661617919271301</v>
       </c>
       <c r="J6">
-        <v>11.78608052231994</v>
+        <v>11.94133200301409</v>
       </c>
       <c r="K6">
-        <v>15.6667138999341</v>
+        <v>14.80979900421339</v>
       </c>
       <c r="L6">
-        <v>6.781520524469322</v>
+        <v>11.81883987956429</v>
       </c>
       <c r="M6">
-        <v>16.45922350979641</v>
+        <v>10.13591754114119</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.798724110921888</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.41052587443771</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.857325235537669</v>
+        <v>6.254328739181701</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.919180538167006</v>
+        <v>5.96863673089988</v>
       </c>
       <c r="E7">
-        <v>10.32845403403197</v>
+        <v>10.3736225520947</v>
       </c>
       <c r="F7">
-        <v>28.57305296435195</v>
+        <v>28.40962827999993</v>
       </c>
       <c r="G7">
-        <v>35.2711699432924</v>
+        <v>34.77574958555685</v>
       </c>
       <c r="H7">
-        <v>2.239092770376037</v>
+        <v>2.202388309023621</v>
       </c>
       <c r="I7">
-        <v>3.992656916564049</v>
+        <v>3.633958952549483</v>
       </c>
       <c r="J7">
-        <v>11.81836713615265</v>
+        <v>11.92885381270795</v>
       </c>
       <c r="K7">
-        <v>15.59558753131339</v>
+        <v>14.73554119739451</v>
       </c>
       <c r="L7">
-        <v>6.858990935170228</v>
+        <v>11.74836610180521</v>
       </c>
       <c r="M7">
-        <v>16.85005841569689</v>
+        <v>10.06948202099005</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.873155204667889</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.80794769835791</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.300712414096377</v>
+        <v>6.600288899906912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.359945681020163</v>
+        <v>6.437904617805549</v>
       </c>
       <c r="E8">
-        <v>11.09902897626388</v>
+        <v>11.14761206381183</v>
       </c>
       <c r="F8">
-        <v>29.73649738953702</v>
+        <v>29.4327441047377</v>
       </c>
       <c r="G8">
-        <v>36.86785540084084</v>
+        <v>36.32330910003304</v>
       </c>
       <c r="H8">
-        <v>1.846013627477007</v>
+        <v>1.823775257183566</v>
       </c>
       <c r="I8">
-        <v>3.837768962244346</v>
+        <v>3.507238699963956</v>
       </c>
       <c r="J8">
-        <v>11.98401058112256</v>
+        <v>12.01020129385045</v>
       </c>
       <c r="K8">
-        <v>15.30591137893933</v>
+        <v>14.43995988601865</v>
       </c>
       <c r="L8">
-        <v>7.190520675938535</v>
+        <v>11.48909716061946</v>
       </c>
       <c r="M8">
-        <v>18.45775613624578</v>
+        <v>9.80285528980292</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.19426446309277</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.46292016209142</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.105708265282201</v>
+        <v>7.214773668615154</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.142401847318311</v>
+        <v>7.248746491665521</v>
       </c>
       <c r="E9">
-        <v>12.47672857682495</v>
+        <v>12.5236747427495</v>
       </c>
       <c r="F9">
-        <v>32.05055994007714</v>
+        <v>31.58095252169793</v>
       </c>
       <c r="G9">
-        <v>40.0792284780641</v>
+        <v>39.2528389291861</v>
       </c>
       <c r="H9">
-        <v>1.989352712239772</v>
+        <v>1.987723107010225</v>
       </c>
       <c r="I9">
-        <v>3.543092012135572</v>
+        <v>3.26271392282986</v>
       </c>
       <c r="J9">
-        <v>12.36530816031453</v>
+        <v>12.39981783257613</v>
       </c>
       <c r="K9">
-        <v>14.78418061170071</v>
+        <v>13.91536011528181</v>
       </c>
       <c r="L9">
-        <v>7.799481239197849</v>
+        <v>11.08716847456989</v>
       </c>
       <c r="M9">
-        <v>21.25354034592982</v>
+        <v>9.370710945579761</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.788269987130664</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>21.36774949695168</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.645911546501965</v>
+        <v>7.681307510485312</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.613316393281187</v>
+        <v>7.769134241440764</v>
       </c>
       <c r="E10">
-        <v>13.19510424276331</v>
+        <v>13.25189374486158</v>
       </c>
       <c r="F10">
-        <v>33.39862255974155</v>
+        <v>32.66682107666698</v>
       </c>
       <c r="G10">
-        <v>41.9549557807028</v>
+        <v>41.30046775061945</v>
       </c>
       <c r="H10">
-        <v>2.465672305017746</v>
+        <v>2.443230754049838</v>
       </c>
       <c r="I10">
-        <v>3.348281497125677</v>
+        <v>3.105987516206376</v>
       </c>
       <c r="J10">
-        <v>12.57458143837512</v>
+        <v>12.30151123056923</v>
       </c>
       <c r="K10">
-        <v>14.34865479846792</v>
+        <v>13.47631812617424</v>
       </c>
       <c r="L10">
-        <v>8.103985116865262</v>
+        <v>10.79174074603389</v>
       </c>
       <c r="M10">
-        <v>23.09690558609713</v>
+        <v>9.045767561110003</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.077551858298868</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>23.22729682837451</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.123136656900334</v>
+        <v>8.279407863540968</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.254619508516083</v>
+        <v>7.453319432963652</v>
       </c>
       <c r="E11">
-        <v>11.68398332879313</v>
+        <v>11.74798475584911</v>
       </c>
       <c r="F11">
-        <v>31.40482079308269</v>
+        <v>30.44986966688838</v>
       </c>
       <c r="G11">
-        <v>39.25160065135746</v>
+        <v>39.47532439909082</v>
       </c>
       <c r="H11">
-        <v>3.231756922327485</v>
+        <v>3.204830055510899</v>
       </c>
       <c r="I11">
-        <v>3.304396789743918</v>
+        <v>3.079893735875108</v>
       </c>
       <c r="J11">
-        <v>11.94448427806368</v>
+        <v>11.12910851705556</v>
       </c>
       <c r="K11">
-        <v>13.80789976507933</v>
+        <v>13.05912290441365</v>
       </c>
       <c r="L11">
-        <v>7.297916897971128</v>
+        <v>10.55371985488251</v>
       </c>
       <c r="M11">
-        <v>23.59833271502652</v>
+        <v>8.682139166516595</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.261674999079237</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>23.57059493838974</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.460096663633987</v>
+        <v>8.709672276913382</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.839795715281555</v>
+        <v>7.043316059936627</v>
       </c>
       <c r="E12">
-        <v>10.30565741613379</v>
+        <v>10.36281232848597</v>
       </c>
       <c r="F12">
-        <v>29.47401647122126</v>
+        <v>28.48139646352343</v>
       </c>
       <c r="G12">
-        <v>36.64094644052822</v>
+        <v>37.36365664346161</v>
       </c>
       <c r="H12">
-        <v>4.384632034879744</v>
+        <v>4.363022602134843</v>
       </c>
       <c r="I12">
-        <v>3.29067269253306</v>
+        <v>3.06962186090816</v>
       </c>
       <c r="J12">
-        <v>11.38688640274844</v>
+        <v>10.3940813603201</v>
       </c>
       <c r="K12">
-        <v>13.54934264644221</v>
+        <v>12.89443277180239</v>
       </c>
       <c r="L12">
-        <v>6.63710385578416</v>
+        <v>10.48869997565972</v>
       </c>
       <c r="M12">
-        <v>23.60690058808928</v>
+        <v>8.509548565990544</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.599590542869198</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>23.46985054511814</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.680281214610613</v>
+        <v>8.998361956106722</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.359315940603813</v>
+        <v>6.523251365567613</v>
       </c>
       <c r="E13">
-        <v>8.947668627838482</v>
+        <v>8.982747079750624</v>
       </c>
       <c r="F13">
-        <v>27.38128209658593</v>
+        <v>26.56765182065995</v>
       </c>
       <c r="G13">
-        <v>33.77846840629562</v>
+        <v>34.62445235616495</v>
       </c>
       <c r="H13">
-        <v>5.635048971479984</v>
+        <v>5.620542345410396</v>
       </c>
       <c r="I13">
-        <v>3.31296658633994</v>
+        <v>3.08699861415034</v>
       </c>
       <c r="J13">
-        <v>10.82571631486222</v>
+        <v>10.010336918309</v>
       </c>
       <c r="K13">
-        <v>13.45841944587704</v>
+        <v>12.87095487997399</v>
       </c>
       <c r="L13">
-        <v>6.064207237254651</v>
+        <v>10.49592726685703</v>
       </c>
       <c r="M13">
-        <v>23.27519642807011</v>
+        <v>8.460809453461509</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.033690924645349</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>23.06728164178008</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.776971384275821</v>
+        <v>9.133760718937449</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.991456377997192</v>
+        <v>6.108850489277318</v>
       </c>
       <c r="E14">
-        <v>8.034612517250173</v>
+        <v>8.049797606280594</v>
       </c>
       <c r="F14">
-        <v>25.82364327079158</v>
+        <v>25.22921674792534</v>
       </c>
       <c r="G14">
-        <v>31.62100283972815</v>
+        <v>32.39229293571142</v>
       </c>
       <c r="H14">
-        <v>6.54632770279772</v>
+        <v>6.536389985058621</v>
       </c>
       <c r="I14">
-        <v>3.347405761450311</v>
+        <v>3.114911916417842</v>
       </c>
       <c r="J14">
-        <v>10.42981273073057</v>
+        <v>9.875099440053688</v>
       </c>
       <c r="K14">
-        <v>13.4781814174543</v>
+        <v>12.91272786415264</v>
       </c>
       <c r="L14">
-        <v>5.734719625996944</v>
+        <v>10.52343495749844</v>
       </c>
       <c r="M14">
-        <v>22.89239299379143</v>
+        <v>8.4854903644173</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.712047402875477</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.64937297132132</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.76524708236642</v>
+        <v>9.128500963147467</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.889966425243042</v>
+        <v>5.987904469219489</v>
       </c>
       <c r="E15">
-        <v>7.811078134212964</v>
+        <v>7.820297217540836</v>
       </c>
       <c r="F15">
-        <v>25.39736897892122</v>
+        <v>24.89728480641128</v>
       </c>
       <c r="G15">
-        <v>31.01741916704785</v>
+        <v>31.70565484099961</v>
       </c>
       <c r="H15">
-        <v>6.752657095731967</v>
+        <v>6.744179758908031</v>
       </c>
       <c r="I15">
-        <v>3.367733888305548</v>
+        <v>3.13269894638758</v>
       </c>
       <c r="J15">
-        <v>10.32870300282059</v>
+        <v>9.894325952964593</v>
       </c>
       <c r="K15">
-        <v>13.50830627982355</v>
+        <v>12.94196710329864</v>
       </c>
       <c r="L15">
-        <v>5.66235871049243</v>
+        <v>10.53500109144333</v>
       </c>
       <c r="M15">
-        <v>22.73460313284554</v>
+        <v>8.512260956543955</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.642798382090955</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>22.48847930560165</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.498271507794611</v>
+        <v>8.826864964510804</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.765400765205778</v>
+        <v>5.799518389500502</v>
       </c>
       <c r="E16">
-        <v>7.702220307738888</v>
+        <v>7.702689620877486</v>
       </c>
       <c r="F16">
-        <v>25.14364828113262</v>
+        <v>24.96523228892118</v>
       </c>
       <c r="G16">
-        <v>30.6132262023031</v>
+        <v>30.74637338471998</v>
       </c>
       <c r="H16">
-        <v>6.465907190677705</v>
+        <v>6.462244470960878</v>
       </c>
       <c r="I16">
-        <v>3.451224423321622</v>
+        <v>3.20026186089088</v>
       </c>
       <c r="J16">
-        <v>10.33807185369421</v>
+        <v>10.37945265413469</v>
       </c>
       <c r="K16">
-        <v>13.69699663544908</v>
+        <v>13.09851915413241</v>
       </c>
       <c r="L16">
-        <v>5.62732487760542</v>
+        <v>10.56819730211445</v>
       </c>
       <c r="M16">
-        <v>22.04010778143403</v>
+        <v>8.686600457135768</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.618964588014219</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.85128011189385</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.233694752376239</v>
+        <v>8.524735291261605</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.872423883279685</v>
+        <v>5.889416236755688</v>
       </c>
       <c r="E17">
-        <v>8.101261840329441</v>
+        <v>8.103095076104463</v>
       </c>
       <c r="F17">
-        <v>25.79418359089368</v>
+        <v>25.70816242460376</v>
       </c>
       <c r="G17">
-        <v>31.48408124672276</v>
+        <v>31.31256091937934</v>
       </c>
       <c r="H17">
-        <v>5.708265899519172</v>
+        <v>5.706605984079626</v>
       </c>
       <c r="I17">
-        <v>3.497822103535646</v>
+        <v>3.23841617400471</v>
       </c>
       <c r="J17">
-        <v>10.55537374229573</v>
+        <v>10.77983805974715</v>
       </c>
       <c r="K17">
-        <v>13.82592118188863</v>
+        <v>13.20666105266137</v>
       </c>
       <c r="L17">
-        <v>5.761383054393287</v>
+        <v>10.60096000104714</v>
       </c>
       <c r="M17">
-        <v>21.71082509736314</v>
+        <v>8.802834127385511</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.757592899324533</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.57615563617385</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.96839788937895</v>
+        <v>8.198855909794011</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.188179738457151</v>
+        <v>6.215151207954928</v>
       </c>
       <c r="E18">
-        <v>9.0690974627621</v>
+        <v>9.078088353894124</v>
       </c>
       <c r="F18">
-        <v>27.32993124452663</v>
+        <v>27.20486455926541</v>
       </c>
       <c r="G18">
-        <v>33.60194441279145</v>
+        <v>33.17463259423717</v>
       </c>
       <c r="H18">
-        <v>4.495704957148158</v>
+        <v>4.494623548619206</v>
       </c>
       <c r="I18">
-        <v>3.507541269109447</v>
+        <v>3.243097386594141</v>
       </c>
       <c r="J18">
-        <v>10.98977301207575</v>
+        <v>11.26015991177178</v>
       </c>
       <c r="K18">
-        <v>13.96038978621955</v>
+        <v>13.31258106307561</v>
       </c>
       <c r="L18">
-        <v>6.138602323227158</v>
+        <v>10.65574515575814</v>
       </c>
       <c r="M18">
-        <v>21.64695757806069</v>
+        <v>8.901179297155561</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.135221516123893</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>21.58690850234495</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.678908207587643</v>
+        <v>7.839122528188304</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.663947130891579</v>
+        <v>6.715113007575058</v>
       </c>
       <c r="E19">
-        <v>10.50554575734537</v>
+        <v>10.52522055800667</v>
       </c>
       <c r="F19">
-        <v>29.39085097747139</v>
+        <v>29.15746180393154</v>
       </c>
       <c r="G19">
-        <v>36.42064637338223</v>
+        <v>35.76179703640765</v>
       </c>
       <c r="H19">
-        <v>3.164955865409758</v>
+        <v>3.16270106723003</v>
       </c>
       <c r="I19">
-        <v>3.503221864491955</v>
+        <v>3.240920443253111</v>
       </c>
       <c r="J19">
-        <v>11.54717790702245</v>
+        <v>11.79256396194468</v>
       </c>
       <c r="K19">
-        <v>14.13098530379668</v>
+        <v>13.43083765814022</v>
       </c>
       <c r="L19">
-        <v>6.777373718205782</v>
+        <v>10.7372264378805</v>
       </c>
       <c r="M19">
-        <v>21.85124217962241</v>
+        <v>8.997579546720448</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.771064532862575</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.87444185325015</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.432458880219748</v>
+        <v>7.479849343474387</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.515809712466755</v>
+        <v>7.632707391367295</v>
       </c>
       <c r="E20">
-        <v>13.01206092993708</v>
+        <v>13.05629612907924</v>
       </c>
       <c r="F20">
-        <v>32.91262770061717</v>
+        <v>32.37061445092942</v>
       </c>
       <c r="G20">
-        <v>41.23304492147158</v>
+        <v>40.37630935006793</v>
       </c>
       <c r="H20">
-        <v>2.339654252096997</v>
+        <v>2.32558299309229</v>
       </c>
       <c r="I20">
-        <v>3.426883206603853</v>
+        <v>3.179483073385766</v>
       </c>
       <c r="J20">
-        <v>12.46886555304777</v>
+        <v>12.47411917898703</v>
       </c>
       <c r="K20">
-        <v>14.39490991078807</v>
+        <v>13.55770273656722</v>
       </c>
       <c r="L20">
-        <v>8.017240765890477</v>
+        <v>10.84119693600098</v>
       </c>
       <c r="M20">
-        <v>22.70015820525844</v>
+        <v>9.101871371647057</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.998789984585167</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>22.83864345393847</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.793139211806959</v>
+        <v>7.876726485381941</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.962244658734194</v>
+        <v>8.236548919512588</v>
       </c>
       <c r="E21">
-        <v>13.87424163203251</v>
+        <v>13.97191317947442</v>
       </c>
       <c r="F21">
-        <v>34.42149199808814</v>
+        <v>33.11957477642783</v>
       </c>
       <c r="G21">
-        <v>43.33043633766211</v>
+        <v>43.5406493716772</v>
       </c>
       <c r="H21">
-        <v>2.727528474962746</v>
+        <v>2.682741703927583</v>
       </c>
       <c r="I21">
-        <v>3.270885908758805</v>
+        <v>3.056758369862853</v>
       </c>
       <c r="J21">
-        <v>12.77342225266077</v>
+        <v>11.55890774207445</v>
       </c>
       <c r="K21">
-        <v>14.14083827212706</v>
+        <v>13.20860480867029</v>
       </c>
       <c r="L21">
-        <v>8.421510480256217</v>
+        <v>10.63460573201285</v>
       </c>
       <c r="M21">
-        <v>24.09780804700182</v>
+        <v>8.838752137421185</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.372408056685739</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>24.14639576084375</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.062501401522193</v>
+        <v>8.179215235765492</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.201270990181552</v>
+        <v>8.582799401713078</v>
       </c>
       <c r="E22">
-        <v>14.30651888728271</v>
+        <v>14.44142873943039</v>
       </c>
       <c r="F22">
-        <v>35.2933521495026</v>
+        <v>33.46970136310325</v>
       </c>
       <c r="G22">
-        <v>44.565019524885</v>
+        <v>45.53951567119046</v>
       </c>
       <c r="H22">
-        <v>2.967345089540359</v>
+        <v>2.902846648001438</v>
       </c>
       <c r="I22">
-        <v>3.161217222474225</v>
+        <v>2.966046774266805</v>
       </c>
       <c r="J22">
-        <v>12.95243213326543</v>
+        <v>10.89697842851262</v>
       </c>
       <c r="K22">
-        <v>13.98119050594607</v>
+        <v>12.98334906453916</v>
       </c>
       <c r="L22">
-        <v>8.622492286863441</v>
+        <v>10.51686136486853</v>
       </c>
       <c r="M22">
-        <v>24.92961607833582</v>
+        <v>8.6691162872196</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.553133438430072</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>24.91182618746713</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.947935872618552</v>
+        <v>8.027302814054039</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.064751625727931</v>
+        <v>8.374998750980188</v>
       </c>
       <c r="E23">
-        <v>14.07284073786638</v>
+        <v>14.18249403753213</v>
       </c>
       <c r="F23">
-        <v>34.87232716993952</v>
+        <v>33.39264364282015</v>
       </c>
       <c r="G23">
-        <v>43.98366976015662</v>
+        <v>44.40264607572041</v>
       </c>
       <c r="H23">
-        <v>2.839834721335157</v>
+        <v>2.787519156308223</v>
       </c>
       <c r="I23">
-        <v>3.208549199029508</v>
+        <v>3.000477598513656</v>
       </c>
       <c r="J23">
-        <v>12.87339157381778</v>
+        <v>11.38944921492568</v>
       </c>
       <c r="K23">
-        <v>14.091814081125</v>
+        <v>13.12674383236911</v>
       </c>
       <c r="L23">
-        <v>8.516742992624252</v>
+        <v>10.59010050226342</v>
       </c>
       <c r="M23">
-        <v>24.46126683885599</v>
+        <v>8.783621268703484</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.460391977621635</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>24.49901757469265</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.445172815087512</v>
+        <v>7.477235578087539</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.547090441086711</v>
+        <v>7.668110232556636</v>
       </c>
       <c r="E24">
-        <v>13.16567758156192</v>
+        <v>13.21190050683306</v>
       </c>
       <c r="F24">
-        <v>33.19355110612388</v>
+        <v>32.63318841373619</v>
       </c>
       <c r="G24">
-        <v>41.64244241799626</v>
+        <v>40.73482620992006</v>
       </c>
       <c r="H24">
-        <v>2.349220311385984</v>
+        <v>2.335056986520856</v>
       </c>
       <c r="I24">
-        <v>3.409684092466398</v>
+        <v>3.158655451848333</v>
       </c>
       <c r="J24">
-        <v>12.55567604542352</v>
+        <v>12.56046376104376</v>
       </c>
       <c r="K24">
-        <v>14.47069872995823</v>
+        <v>13.60992987044639</v>
       </c>
       <c r="L24">
-        <v>8.104279733946433</v>
+        <v>10.87749862172115</v>
       </c>
       <c r="M24">
-        <v>22.66365691277641</v>
+        <v>9.145006822489812</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.085350148842224</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>22.81779469452827</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.852133793090856</v>
+        <v>7.009392207622087</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.954532836228686</v>
+        <v>7.041568769130802</v>
       </c>
       <c r="E25">
-        <v>12.12503987060728</v>
+        <v>12.16779767091637</v>
       </c>
       <c r="F25">
-        <v>31.35675134679873</v>
+        <v>30.98591121628677</v>
       </c>
       <c r="G25">
-        <v>39.08709216480123</v>
+        <v>38.27119051671213</v>
       </c>
       <c r="H25">
-        <v>1.80227083292576</v>
+        <v>1.808158791028249</v>
       </c>
       <c r="I25">
-        <v>3.635935837131008</v>
+        <v>3.34478091455528</v>
       </c>
       <c r="J25">
-        <v>12.23158311635403</v>
+        <v>12.34908388890278</v>
       </c>
       <c r="K25">
-        <v>14.88495590937042</v>
+        <v>14.03343608542716</v>
       </c>
       <c r="L25">
-        <v>7.637704365439971</v>
+        <v>11.1694451940589</v>
       </c>
       <c r="M25">
-        <v>20.57799312543528</v>
+        <v>9.46494134950586</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.632206060334484</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.6682608202429</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
